--- a/data/IRiDiuM.xlsx
+++ b/data/IRiDiuM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChuE\Documents\python\IRiDiuM-Glossary-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49F5A4B-A6A2-444D-9D59-CE37CABC0B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F98621-52E0-42C0-9A72-A9A837895243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4644,9 +4644,6 @@
     <t>Researcher level</t>
   </si>
   <si>
-    <t>A researcher's level is incumbent-based. It may described numerically (e.g., Level 1, Level 2, ..., Level 5), or with a descriptive title (e.g., Lecturer or Adjunct Professor - Professeur associé; Clinical or Research Professor - Professeur clinique; Assistant Professor - Professeur adjoint; Associate Professor - Professeur agrégé; Full Professor - Professeur titulaire). The levels can generally described as: (1) A researcher, usually a recent Ph.D. graduate with little or no experience, who has made some expert-reviewed contributions and has sufficient experience to contribute to valued outcomes; (2) A researcher who is recognized by peers as knowledgeable in an area of specialty, either has worked in and led a small project team of scientific/technical personnel or carried out individual in-depth inquiries to support the delivery of valued outcomes; (3) A researcher who is recognized by peers as a national expert in an area of specialty, and has led a team of scientific and technical personnel or carried out in-depth inquiries to successfully deliver on the immediate, or contribute to intermediate and long-term, research goals in a specialty; (4) A researcher who is recognized as an authority in broad areas of specialty and who has strategically conceptualized the course of research activity leading to the achievement of the intermediate, and contributing to the long-term, research goals in a specialty; and, (5) A researcher who is recognized as an authority and visionary in broad areas of specialty who has strategically integrated leading edge scientific and technical objectives into programs, having long-term impact on the future directions of research in a specialty.</t>
-  </si>
-  <si>
     <t>df8deaa4-aaf5-4006-8c34-bf6b9736a09f</t>
   </si>
   <si>
@@ -5477,6 +5474,9 @@
   </si>
   <si>
     <t>d4c1ce4b-ccc0-401c-b5a9-482f7bf2ae91</t>
+  </si>
+  <si>
+    <t>A researcher's level is incumbent-based. It may described numerically (e.g., Level 1, Level 2, ..., Level 5), or with a descriptive title (e.g., Lecturer or Adjunct Professor/Professeur associe; Clinical or Research Professor/Professeur clinique; Assistant Professor/Professeur adjoint; Associate Professor/Professeur agrege; Full Professor/Professeur titulaire). The levels can generally described as: (1) A researcher, usually a recent Ph.D. graduate with little or no experience, who has made some expert-reviewed contributions and has sufficient experience to contribute to valued outcomes; (2) A researcher who is recognized by peers as knowledgeable in an area of specialty, either has worked in and led a small project team of scientific/technical personnel or carried out individual in-depth inquiries to support the delivery of valued outcomes; (3) A researcher who is recognized by peers as a national expert in an area of specialty, and has led a team of scientific and technical personnel or carried out in-depth inquiries to successfully deliver on the immediate, or contribute to intermediate and long-term, research goals in a specialty; (4) A researcher who is recognized as an authority in broad areas of specialty and who has strategically conceptualized the course of research activity leading to the achievement of the intermediate, and contributing to the long-term, research goals in a specialty; and, (5) A researcher who is recognized as an authority and visionary in broad areas of specialty who has strategically integrated leading edge scientific and technical objectives into programs, having long-term impact on the future directions of research in a specialty.</t>
   </si>
 </sst>
 </file>
@@ -5849,8 +5849,8 @@
   <dimension ref="A1:Z1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A441" sqref="A441:XFD441"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22029,7 +22029,7 @@
         <v>1515</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1516</v>
+        <v>1788</v>
       </c>
       <c r="D433" s="5"/>
       <c r="E433" s="5" t="s">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="G433" s="5"/>
       <c r="H433" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
@@ -22066,23 +22066,23 @@
         <v>9</v>
       </c>
       <c r="B434" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C434" s="5" t="s">
         <v>1518</v>
-      </c>
-      <c r="C434" s="5" t="s">
-        <v>1519</v>
       </c>
       <c r="D434" s="5"/>
       <c r="E434" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F434" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G434" s="5" t="s">
         <v>1520</v>
       </c>
-      <c r="G434" s="5" t="s">
+      <c r="H434" s="5" t="s">
         <v>1521</v>
-      </c>
-      <c r="H434" s="5" t="s">
-        <v>1522</v>
       </c>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
@@ -22108,17 +22108,17 @@
         <v>9</v>
       </c>
       <c r="B435" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C435" s="5" t="s">
         <v>1523</v>
-      </c>
-      <c r="C435" s="5" t="s">
-        <v>1524</v>
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
@@ -22144,17 +22144,17 @@
         <v>9</v>
       </c>
       <c r="B436" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C436" s="5" t="s">
         <v>1526</v>
-      </c>
-      <c r="C436" s="5" t="s">
-        <v>1527</v>
       </c>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
@@ -22180,19 +22180,19 @@
         <v>9</v>
       </c>
       <c r="B437" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C437" s="5" t="s">
         <v>1529</v>
-      </c>
-      <c r="C437" s="5" t="s">
-        <v>1530</v>
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="5" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
@@ -22218,17 +22218,17 @@
         <v>9</v>
       </c>
       <c r="B438" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C438" s="5" t="s">
         <v>1533</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>1534</v>
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
@@ -22254,17 +22254,17 @@
         <v>9</v>
       </c>
       <c r="B439" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C439" s="5" t="s">
         <v>1536</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>1537</v>
       </c>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
@@ -22290,19 +22290,19 @@
         <v>268</v>
       </c>
       <c r="B440" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C440" s="16" t="s">
         <v>1539</v>
       </c>
-      <c r="C440" s="16" t="s">
+      <c r="D440" s="5" t="s">
         <v>1540</v>
       </c>
-      <c r="D440" s="5" t="s">
+      <c r="E440" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="E440" s="5" t="s">
+      <c r="F440" s="5" t="s">
         <v>1542</v>
-      </c>
-      <c r="F440" s="5" t="s">
-        <v>1543</v>
       </c>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
@@ -22330,10 +22330,10 @@
         <v>268</v>
       </c>
       <c r="B441" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C441" s="5" t="s">
         <v>1544</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>1545</v>
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="6"/>
@@ -22364,17 +22364,17 @@
         <v>9</v>
       </c>
       <c r="B442" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C442" s="5" t="s">
         <v>1546</v>
-      </c>
-      <c r="C442" s="5" t="s">
-        <v>1547</v>
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="6"/>
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
@@ -22400,17 +22400,17 @@
         <v>9</v>
       </c>
       <c r="B443" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C443" s="5" t="s">
         <v>1549</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>1550</v>
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
@@ -22436,17 +22436,17 @@
         <v>9</v>
       </c>
       <c r="B444" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C444" s="5" t="s">
         <v>1552</v>
-      </c>
-      <c r="C444" s="5" t="s">
-        <v>1553</v>
       </c>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
@@ -22472,17 +22472,17 @@
         <v>9</v>
       </c>
       <c r="B445" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C445" s="5" t="s">
         <v>1555</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>1556</v>
       </c>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
@@ -22508,21 +22508,21 @@
         <v>9</v>
       </c>
       <c r="B446" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C446" s="5" t="s">
         <v>1558</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>1559</v>
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F446" s="5" t="s">
         <v>1560</v>
-      </c>
-      <c r="F446" s="5" t="s">
-        <v>1561</v>
       </c>
       <c r="G446" s="5"/>
       <c r="H446" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
@@ -22548,21 +22548,21 @@
         <v>9</v>
       </c>
       <c r="B447" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C447" s="5" t="s">
         <v>1563</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>1564</v>
       </c>
       <c r="D447" s="5"/>
       <c r="E447" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G447" s="5"/>
       <c r="H447" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
@@ -22588,21 +22588,21 @@
         <v>9</v>
       </c>
       <c r="B448" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C448" s="5" t="s">
         <v>1567</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>1568</v>
       </c>
       <c r="D448" s="5"/>
       <c r="E448" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F448" s="5" t="s">
         <v>1569</v>
-      </c>
-      <c r="F448" s="5" t="s">
-        <v>1570</v>
       </c>
       <c r="G448" s="5"/>
       <c r="H448" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
@@ -22628,19 +22628,19 @@
         <v>9</v>
       </c>
       <c r="B449" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C449" s="5" t="s">
         <v>1572</v>
-      </c>
-      <c r="C449" s="5" t="s">
-        <v>1573</v>
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G449" s="5"/>
       <c r="H449" s="14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
@@ -22666,17 +22666,17 @@
         <v>9</v>
       </c>
       <c r="B450" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C450" s="5" t="s">
         <v>1575</v>
-      </c>
-      <c r="C450" s="5" t="s">
-        <v>1576</v>
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
@@ -22702,17 +22702,17 @@
         <v>9</v>
       </c>
       <c r="B451" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C451" s="5" t="s">
         <v>1578</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>1579</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
@@ -22738,21 +22738,21 @@
         <v>9</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D452" s="5"/>
       <c r="E452" s="5" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G452" s="5"/>
       <c r="H452" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
@@ -22778,19 +22778,19 @@
         <v>9</v>
       </c>
       <c r="B453" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C453" s="5" t="s">
         <v>1583</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="D453" s="5"/>
       <c r="E453" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
@@ -22816,19 +22816,19 @@
         <v>9</v>
       </c>
       <c r="B454" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C454" s="5" t="s">
         <v>1587</v>
-      </c>
-      <c r="C454" s="5" t="s">
-        <v>1588</v>
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="5" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F454" s="5"/>
       <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
@@ -22854,17 +22854,17 @@
         <v>9</v>
       </c>
       <c r="B455" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C455" s="5" t="s">
         <v>1591</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>1592</v>
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
       <c r="G455" s="5"/>
       <c r="H455" s="5" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
@@ -22890,14 +22890,14 @@
         <v>23</v>
       </c>
       <c r="B456" s="10" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C456" s="5" t="s">
         <v>1594</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>1595</v>
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -22926,17 +22926,17 @@
         <v>9</v>
       </c>
       <c r="B457" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C457" s="5" t="s">
         <v>1597</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>1598</v>
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
       <c r="H457" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
@@ -22962,17 +22962,17 @@
         <v>9</v>
       </c>
       <c r="B458" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C458" s="5" t="s">
         <v>1600</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>1601</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
@@ -22998,18 +22998,18 @@
         <v>23</v>
       </c>
       <c r="B459" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C459" s="5" t="s">
         <v>1603</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>1604</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="11" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F459" s="5"/>
       <c r="G459" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H459" s="5"/>
       <c r="I459" s="6"/>
@@ -23036,10 +23036,10 @@
         <v>9</v>
       </c>
       <c r="B460" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C460" s="5" t="s">
         <v>1607</v>
-      </c>
-      <c r="C460" s="5" t="s">
-        <v>1608</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="5" t="s">
@@ -23048,7 +23048,7 @@
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
@@ -23074,17 +23074,17 @@
         <v>9</v>
       </c>
       <c r="B461" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>1610</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>1611</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
@@ -23110,17 +23110,17 @@
         <v>9</v>
       </c>
       <c r="B462" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C462" s="5" t="s">
         <v>1613</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>1614</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
@@ -23146,10 +23146,10 @@
         <v>9</v>
       </c>
       <c r="B463" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C463" s="5" t="s">
         <v>1616</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>1617</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="5" t="s">
@@ -23158,7 +23158,7 @@
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
@@ -23184,17 +23184,17 @@
         <v>9</v>
       </c>
       <c r="B464" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C464" s="5" t="s">
         <v>1619</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>1620</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
       <c r="H464" s="5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
@@ -23220,17 +23220,17 @@
         <v>9</v>
       </c>
       <c r="B465" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C465" s="5" t="s">
         <v>1622</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>1623</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
@@ -23256,21 +23256,21 @@
         <v>9</v>
       </c>
       <c r="B466" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C466" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>1626</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F466" s="5" t="s">
         <v>1627</v>
-      </c>
-      <c r="F466" s="5" t="s">
-        <v>1628</v>
       </c>
       <c r="G466" s="5"/>
       <c r="H466" s="5" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
@@ -23296,19 +23296,19 @@
         <v>9</v>
       </c>
       <c r="B467" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C467" s="5" t="s">
         <v>1630</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>1631</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G467" s="5"/>
       <c r="H467" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
@@ -23334,10 +23334,10 @@
         <v>9</v>
       </c>
       <c r="B468" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C468" s="5" t="s">
         <v>1634</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>1635</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="5" t="s">
@@ -23346,7 +23346,7 @@
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
@@ -23372,10 +23372,10 @@
         <v>9</v>
       </c>
       <c r="B469" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C469" s="5" t="s">
         <v>1637</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>1638</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="5" t="s">
@@ -23384,7 +23384,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
@@ -23410,21 +23410,21 @@
         <v>9</v>
       </c>
       <c r="B470" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C470" s="5" t="s">
         <v>1640</v>
-      </c>
-      <c r="C470" s="5" t="s">
-        <v>1641</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="5" t="s">
         <v>1195</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
@@ -23450,17 +23450,17 @@
         <v>9</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C471" s="5" t="s">
         <v>1644</v>
-      </c>
-      <c r="C471" s="5" t="s">
-        <v>1645</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
@@ -23486,10 +23486,10 @@
         <v>9</v>
       </c>
       <c r="B472" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>1647</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>1648</v>
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="5" t="s">
@@ -23498,7 +23498,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
@@ -23524,17 +23524,17 @@
         <v>9</v>
       </c>
       <c r="B473" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C473" s="5" t="s">
         <v>1650</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>1651</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
@@ -23560,17 +23560,17 @@
         <v>9</v>
       </c>
       <c r="B474" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C474" s="5" t="s">
         <v>1653</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>1654</v>
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
@@ -23596,21 +23596,21 @@
         <v>9</v>
       </c>
       <c r="B475" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C475" s="5" t="s">
         <v>1656</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>1657</v>
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F475" s="5" t="s">
         <v>1658</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>1659</v>
       </c>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
@@ -23636,19 +23636,19 @@
         <v>9</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C476" s="5" t="s">
         <v>1661</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>1662</v>
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F476" s="5"/>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
@@ -23674,17 +23674,17 @@
         <v>9</v>
       </c>
       <c r="B477" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C477" s="5" t="s">
         <v>1665</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>1666</v>
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
@@ -23710,19 +23710,19 @@
         <v>9</v>
       </c>
       <c r="B478" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C478" s="5" t="s">
         <v>1668</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>1669</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="5" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
@@ -23748,17 +23748,17 @@
         <v>9</v>
       </c>
       <c r="B479" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C479" s="5" t="s">
         <v>1672</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>1673</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
@@ -23784,17 +23784,17 @@
         <v>9</v>
       </c>
       <c r="B480" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C480" s="5" t="s">
         <v>1675</v>
-      </c>
-      <c r="C480" s="5" t="s">
-        <v>1676</v>
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
@@ -23820,19 +23820,19 @@
         <v>9</v>
       </c>
       <c r="B481" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C481" s="5" t="s">
         <v>1678</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>1679</v>
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G481" s="5"/>
       <c r="H481" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
@@ -23858,17 +23858,17 @@
         <v>9</v>
       </c>
       <c r="B482" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C482" s="5" t="s">
         <v>1682</v>
-      </c>
-      <c r="C482" s="5" t="s">
-        <v>1683</v>
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
@@ -23894,10 +23894,10 @@
         <v>9</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C483" s="5" t="s">
         <v>1685</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>1686</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5" t="s">
@@ -23906,7 +23906,7 @@
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
@@ -23932,10 +23932,10 @@
         <v>23</v>
       </c>
       <c r="B484" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C484" s="5" t="s">
         <v>1688</v>
-      </c>
-      <c r="C484" s="5" t="s">
-        <v>1689</v>
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="5" t="s">
@@ -23968,10 +23968,10 @@
         <v>9</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C485" s="5" t="s">
         <v>1690</v>
-      </c>
-      <c r="C485" s="5" t="s">
-        <v>1691</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="5" t="s">
@@ -23980,7 +23980,7 @@
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
@@ -24006,17 +24006,17 @@
         <v>9</v>
       </c>
       <c r="B486" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C486" s="5" t="s">
         <v>1693</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>1694</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
@@ -24042,17 +24042,17 @@
         <v>9</v>
       </c>
       <c r="B487" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C487" s="5" t="s">
         <v>1696</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>1697</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
@@ -24078,19 +24078,19 @@
         <v>9</v>
       </c>
       <c r="B488" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C488" s="5" t="s">
         <v>1699</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>1700</v>
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G488" s="5"/>
       <c r="H488" s="5" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
@@ -24116,10 +24116,10 @@
         <v>9</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C489" s="5" t="s">
         <v>1703</v>
-      </c>
-      <c r="C489" s="5" t="s">
-        <v>1704</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5" t="s">
@@ -24128,7 +24128,7 @@
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
@@ -24154,17 +24154,17 @@
         <v>9</v>
       </c>
       <c r="B490" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C490" s="5" t="s">
         <v>1706</v>
-      </c>
-      <c r="C490" s="5" t="s">
-        <v>1707</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
@@ -24190,19 +24190,19 @@
         <v>9</v>
       </c>
       <c r="B491" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C491" s="5" t="s">
         <v>1709</v>
-      </c>
-      <c r="C491" s="5" t="s">
-        <v>1710</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G491" s="5"/>
       <c r="H491" s="5" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
@@ -24228,17 +24228,17 @@
         <v>9</v>
       </c>
       <c r="B492" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C492" s="5" t="s">
         <v>1713</v>
-      </c>
-      <c r="C492" s="5" t="s">
-        <v>1714</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
@@ -24264,10 +24264,10 @@
         <v>23</v>
       </c>
       <c r="B493" s="10" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C493" s="5" t="s">
         <v>1716</v>
-      </c>
-      <c r="C493" s="5" t="s">
-        <v>1717</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="5" t="s">
@@ -24300,21 +24300,21 @@
         <v>9</v>
       </c>
       <c r="B494" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C494" s="5" t="s">
         <v>1718</v>
-      </c>
-      <c r="C494" s="5" t="s">
-        <v>1719</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F494" s="5" t="s">
         <v>1720</v>
-      </c>
-      <c r="F494" s="5" t="s">
-        <v>1721</v>
       </c>
       <c r="G494" s="5"/>
       <c r="H494" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
@@ -24340,14 +24340,14 @@
         <v>23</v>
       </c>
       <c r="B495" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C495" s="5" t="s">
         <v>1723</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>1724</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
@@ -24376,17 +24376,17 @@
         <v>9</v>
       </c>
       <c r="B496" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C496" s="5" t="s">
         <v>1726</v>
-      </c>
-      <c r="C496" s="5" t="s">
-        <v>1727</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
@@ -24412,21 +24412,21 @@
         <v>9</v>
       </c>
       <c r="B497" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C497" s="5" t="s">
         <v>1729</v>
-      </c>
-      <c r="C497" s="5" t="s">
-        <v>1730</v>
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G497" s="5"/>
       <c r="H497" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
@@ -24452,19 +24452,19 @@
         <v>9</v>
       </c>
       <c r="B498" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C498" s="5" t="s">
         <v>1733</v>
-      </c>
-      <c r="C498" s="5" t="s">
-        <v>1734</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G498" s="5"/>
       <c r="H498" s="5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
@@ -24490,19 +24490,19 @@
         <v>9</v>
       </c>
       <c r="B499" s="5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C499" s="5" t="s">
         <v>1737</v>
-      </c>
-      <c r="C499" s="5" t="s">
-        <v>1738</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G499" s="5"/>
       <c r="H499" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
@@ -24528,19 +24528,19 @@
         <v>9</v>
       </c>
       <c r="B500" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C500" s="5" t="s">
         <v>1741</v>
-      </c>
-      <c r="C500" s="5" t="s">
-        <v>1742</v>
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G500" s="5"/>
       <c r="H500" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
@@ -24566,19 +24566,19 @@
         <v>9</v>
       </c>
       <c r="B501" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C501" s="5" t="s">
         <v>1745</v>
-      </c>
-      <c r="C501" s="5" t="s">
-        <v>1746</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G501" s="5"/>
       <c r="H501" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
@@ -24604,21 +24604,21 @@
         <v>9</v>
       </c>
       <c r="B502" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C502" s="5" t="s">
         <v>1749</v>
-      </c>
-      <c r="C502" s="5" t="s">
-        <v>1750</v>
       </c>
       <c r="D502" s="5"/>
       <c r="E502" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F502" s="5" t="s">
         <v>1751</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>1752</v>
       </c>
       <c r="G502" s="5"/>
       <c r="H502" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
@@ -24644,17 +24644,17 @@
         <v>9</v>
       </c>
       <c r="B503" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C503" s="5" t="s">
         <v>1754</v>
-      </c>
-      <c r="C503" s="5" t="s">
-        <v>1755</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
       <c r="H503" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
@@ -24680,17 +24680,17 @@
         <v>9</v>
       </c>
       <c r="B504" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C504" s="5" t="s">
         <v>1757</v>
-      </c>
-      <c r="C504" s="5" t="s">
-        <v>1758</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
       <c r="H504" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
@@ -24716,17 +24716,17 @@
         <v>9</v>
       </c>
       <c r="B505" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C505" s="5" t="s">
         <v>1760</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>1761</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
       <c r="H505" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
@@ -24752,19 +24752,19 @@
         <v>9</v>
       </c>
       <c r="B506" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C506" s="5" t="s">
         <v>1763</v>
-      </c>
-      <c r="C506" s="5" t="s">
-        <v>1764</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G506" s="5"/>
       <c r="H506" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
@@ -24790,21 +24790,21 @@
         <v>9</v>
       </c>
       <c r="B507" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C507" s="5" t="s">
         <v>1767</v>
-      </c>
-      <c r="C507" s="5" t="s">
-        <v>1768</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G507" s="5"/>
       <c r="H507" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
@@ -24830,17 +24830,17 @@
         <v>9</v>
       </c>
       <c r="B508" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C508" s="5" t="s">
         <v>1771</v>
-      </c>
-      <c r="C508" s="5" t="s">
-        <v>1772</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
       <c r="H508" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
@@ -24866,23 +24866,23 @@
         <v>9</v>
       </c>
       <c r="B509" s="5" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C509" s="5" t="s">
         <v>1774</v>
-      </c>
-      <c r="C509" s="5" t="s">
-        <v>1775</v>
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F509" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="G509" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="G509" s="5" t="s">
+      <c r="H509" s="5" t="s">
         <v>1778</v>
-      </c>
-      <c r="H509" s="5" t="s">
-        <v>1779</v>
       </c>
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
@@ -24908,17 +24908,17 @@
         <v>9</v>
       </c>
       <c r="B510" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C510" s="5" t="s">
         <v>1780</v>
-      </c>
-      <c r="C510" s="5" t="s">
-        <v>1781</v>
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
       <c r="H510" s="5" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
@@ -24944,10 +24944,10 @@
         <v>9</v>
       </c>
       <c r="B511" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C511" s="5" t="s">
         <v>1783</v>
-      </c>
-      <c r="C511" s="5" t="s">
-        <v>1784</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="5" t="s">
@@ -24956,7 +24956,7 @@
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
       <c r="H511" s="5" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -24982,17 +24982,17 @@
         <v>9</v>
       </c>
       <c r="B512" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C512" s="5" t="s">
         <v>1786</v>
-      </c>
-      <c r="C512" s="5" t="s">
-        <v>1787</v>
       </c>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
       <c r="H512" s="5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>

--- a/data/IRiDiuM.xlsx
+++ b/data/IRiDiuM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChuE\Downloads\IRiDiuM-Glossary-main (1)\IRiDiuM-Glossary-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CharlesD\Searches\Downloads\IRiDiuM-Glossary-main\IRiDiuM-Glossary-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA90646-A275-4F3D-9EBB-43C2B98F0E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848B2EC-28F8-4B14-A09F-B498205218ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="-13260" windowWidth="25740" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSSARY UPDATE" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1831">
   <si>
     <t>Status</t>
   </si>
@@ -1506,16 +1506,7 @@
     <t>Data management plan</t>
   </si>
   <si>
-    <t>A formal statement describing how research data will be managed and documented throughout a research project and the terms regarding the subsequent deposit of the data with a data repository for long-term management and preservation.</t>
-  </si>
-  <si>
     <t>1b146b4b-2a0b-4e99-a970-c9f4c330259d</t>
-  </si>
-  <si>
-    <t>DMP's are living documents that outline a project's plans for research data management. The content, format and length of DMPs depend on the nature of the given research project. DMPs can be developed to guide a single research project or span a multiproject research initiative or longer-term program of research. The DMP submitted at the application stage could, depending on the complexity and duration of the project, be presented as a more high-level outline and then be expanded on throughout the life of the project. enabling automatic exchange, integration, and validation of information provided in DMPs. Machine-actonable DMP's (maDMP) are designed to support the exchange of information between systems, to provide basic interoperability between systems producing or consuming maDMPs, acting on behalf of stakeholders involved in the research life cycle (researchers, funders, repository managers, ICT providers, librarians, etc.) and the information represented over the whole DMP lifecycle.</t>
-  </si>
-  <si>
-    <t>Canada Tri-Agency; Research Data Alliance (RDA)</t>
   </si>
   <si>
     <t>Data management policy</t>
@@ -4481,9 +4472,6 @@
     <t>Reproducible</t>
   </si>
   <si>
-    <t>Reproducible data and code means that the final data and code are computationally reproducible within some tolerance interval or defined limits of precision and accuracy, i.e. a 3rd party will be able to verify the data lineage and processing, reanalyze the data and obtain consistent computational results using the same input raw data, computational steps, methods, computer code, and conditions of analysis in order to determine if the same result emerges from the reprocessing and reanalysis. "Same result" can mean different things in different contexts: identical measures in a fully deterministic context, the same numeric results but differing in some irrelevant detail, statistically similar results in a non-deterministic context, or validation of a hypothesis. All data and code are made available for 3rd-party verification of reproducibility. Note that reproducibility is a different concept from replicability. In the latter case, the final published data are linked to sufficiently detailed methods and information for a 3rd-party to be able to verify the results based on the independent collection of new raw data using similar or different methods but leading to comparable results.</t>
-  </si>
-  <si>
     <t>NASEM (2019) Reproducibility and Replicability in Science; Buckheit and Donohue 1995; Donohue 2010; Peng 2011; Gandrud 2013; George 2015.</t>
   </si>
   <si>
@@ -5602,12 +5590,33 @@
   <si>
     <t>d4c1ce4b-ccc0-401c-b5a9-482f7bf2ae91</t>
   </si>
+  <si>
+    <t xml:space="preserve">A Data Management Plan (DMP) provides information about a project and its data that are needed by managers, funders, researchers, scientists, data stewards, librarians, IT support, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See, machine-actionable Data Management Plan (maDMP). </t>
+  </si>
+  <si>
+    <t>Machine-actionable data management plan (DMP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine-actionable Data Management Plan (maDMP), updated during the entire data lifecycle, provides information about a project and its data in a discipline agnostic standardized manner that is readable and reusable by both humans and automated systems. maDMPs facilitate collaboration, reporting, compliance, and integration with automated systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine-actionable Data Management Plans (maDMPs), are an enterprise solution that operationalizes FAIRER (Findable, Accessible, Interoperable, Reusable, Ethical, and Reproducible) data management principles and enables an organization to plan more easily, document costing and funding, track inputs and outputs, provide customized reports, and ensure transparency throughout the data lifecycle. They provide information about contributors, partner agreements, distributions and licensing, storage, technical resources and computing needs, processing workflows, associated code and software, security and privacy, data quality, ethical issues, Indigenous considerations, retention and disposition, approvals, and more. maDMPs are the means for rapidly building reliable, lightweight, scalable, and easily customized automated systems with appropriate access controls while maximizing interoperability. (See, also, the definition “FAIRER”) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RDA-DMP-Common/RDA-DMP-Common-Standard ; https://fairerdata.github.io/maDMP-Standard/ </t>
+  </si>
+  <si>
+    <t>Reproducible data and code means that the final data and code are computationally reproducible within some tolerance interval or defined limits of precision and accuracy, i.e. a 3rd party will be able to verify the data lineage and processing, reanalyze the data and obtain consistent computational results using the same input raw data, computational steps, methods, computer software &amp; code, and conditions of analysis in order to determine if the same result emerges from the reprocessing and reanalysis. "Same result" can mean different things in different contexts: identical measures in a fully deterministic context, the same numeric results but differing in some irrelevant detail, statistically similar results in a non-deterministic context, or validation of a hypothesis. All data and code are made available for 3rd-party verification of reproducibility. Note that reproducibility is a different concept from replicability. In the latter case, the final published data are linked to sufficiently detailed methods and information for a 3rd-party to be able to verify the results based on the independent collection of new raw data using similar or different methods but leading to comparable results.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5651,6 +5660,18 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5706,7 +5727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5752,6 +5773,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -5969,11 +5999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1033"/>
+  <dimension ref="A1:Y1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A466" sqref="A466:XFD466"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10870,18 +10900,16 @@
         <v>487</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>491</v>
-      </c>
+        <v>1824</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E135" s="6"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -10906,17 +10934,17 @@
         <v>8</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -10941,19 +10969,19 @@
         <v>8</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -10978,21 +11006,21 @@
         <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -11017,19 +11045,19 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -11054,19 +11082,19 @@
         <v>8</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -11091,17 +11119,17 @@
         <v>8</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -11126,17 +11154,17 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -11161,19 +11189,19 @@
         <v>8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="6"/>
       <c r="G143" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -11198,17 +11226,17 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -11233,19 +11261,19 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -11270,17 +11298,17 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -11305,14 +11333,14 @@
         <v>22</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -11340,17 +11368,17 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -11375,17 +11403,17 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -11410,19 +11438,19 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -11447,19 +11475,19 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -11484,10 +11512,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -11496,7 +11524,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -11521,19 +11549,19 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -11558,17 +11586,17 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -11593,17 +11621,17 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -11628,21 +11656,21 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -11667,17 +11695,17 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -11702,17 +11730,17 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
@@ -11737,19 +11765,19 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -11774,17 +11802,17 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
@@ -11809,17 +11837,17 @@
         <v>172</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
@@ -11844,21 +11872,21 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -11883,17 +11911,17 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -11918,21 +11946,21 @@
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
@@ -11957,17 +11985,17 @@
         <v>8</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -11992,21 +12020,21 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -12031,17 +12059,17 @@
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
@@ -12066,19 +12094,19 @@
         <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -12103,23 +12131,23 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="F169" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -12144,17 +12172,17 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -12179,17 +12207,17 @@
         <v>8</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -12217,16 +12245,16 @@
         <v>435</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="11" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
@@ -12251,17 +12279,17 @@
         <v>8</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
@@ -12286,17 +12314,17 @@
         <v>8</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
@@ -12321,17 +12349,17 @@
         <v>8</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
@@ -12356,17 +12384,17 @@
         <v>8</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
@@ -12391,19 +12419,19 @@
         <v>8</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -12428,17 +12456,17 @@
         <v>8</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
@@ -12463,17 +12491,17 @@
         <v>8</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
@@ -12498,19 +12526,19 @@
         <v>8</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
@@ -12535,21 +12563,21 @@
         <v>8</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
         <v>395</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
@@ -12574,19 +12602,19 @@
         <v>8</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
@@ -12611,17 +12639,17 @@
         <v>8</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
@@ -12646,17 +12674,17 @@
         <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
@@ -12681,10 +12709,10 @@
         <v>8</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
@@ -12693,7 +12721,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
@@ -12718,21 +12746,21 @@
         <v>172</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C186" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D186" s="5" t="s">
-        <v>669</v>
-      </c>
       <c r="E186" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
@@ -12757,19 +12785,19 @@
         <v>8</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -12794,19 +12822,19 @@
         <v>8</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -12831,17 +12859,17 @@
         <v>8</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -12866,17 +12894,17 @@
         <v>8</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -12901,21 +12929,21 @@
         <v>8</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -12940,17 +12968,17 @@
         <v>8</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -12975,17 +13003,17 @@
         <v>8</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -13010,19 +13038,19 @@
         <v>8</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -13047,17 +13075,17 @@
         <v>8</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -13082,19 +13110,19 @@
         <v>8</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
@@ -13119,19 +13147,19 @@
         <v>172</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -13156,21 +13184,21 @@
         <v>8</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
@@ -13195,10 +13223,10 @@
         <v>8</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5" t="s">
@@ -13209,7 +13237,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -13234,19 +13262,19 @@
         <v>8</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -13271,19 +13299,19 @@
         <v>8</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
@@ -13308,21 +13336,21 @@
         <v>8</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
@@ -13347,19 +13375,19 @@
         <v>8</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G203" s="5"/>
       <c r="H203" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
@@ -13384,21 +13412,21 @@
         <v>8</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -13423,21 +13451,21 @@
         <v>172</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -13462,17 +13490,17 @@
         <v>8</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
@@ -13497,19 +13525,19 @@
         <v>8</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -13534,17 +13562,17 @@
         <v>8</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
@@ -13569,10 +13597,10 @@
         <v>8</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5" t="s">
@@ -13581,7 +13609,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
@@ -13609,16 +13637,16 @@
         <v>446</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G210" s="5"/>
       <c r="H210" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -13643,16 +13671,16 @@
         <v>22</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -13680,14 +13708,14 @@
         <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -13715,7 +13743,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="5"/>
@@ -13746,17 +13774,17 @@
         <v>8</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -13781,16 +13809,16 @@
         <v>22</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E215" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>771</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -13818,16 +13846,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -13852,17 +13880,17 @@
         <v>8</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
@@ -13887,10 +13915,10 @@
         <v>22</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5" t="s">
@@ -13922,17 +13950,17 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
@@ -13957,17 +13985,17 @@
         <v>8</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
@@ -13992,17 +14020,17 @@
         <v>8</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -14027,17 +14055,17 @@
         <v>8</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -14062,10 +14090,10 @@
         <v>8</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5" t="s">
@@ -14074,7 +14102,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="11" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
@@ -14099,19 +14127,19 @@
         <v>8</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
@@ -14136,23 +14164,23 @@
         <v>8</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="H225" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="H225" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
@@ -14177,21 +14205,21 @@
         <v>8</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
@@ -14216,19 +14244,19 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
@@ -14253,19 +14281,19 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
@@ -14290,17 +14318,17 @@
         <v>8</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
@@ -14325,17 +14353,17 @@
         <v>8</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
@@ -14360,17 +14388,17 @@
         <v>8</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
@@ -14395,16 +14423,16 @@
         <v>22</v>
       </c>
       <c r="B232" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E232" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
@@ -14432,17 +14460,17 @@
         <v>8</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -14467,17 +14495,17 @@
         <v>8</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -14502,19 +14530,19 @@
         <v>8</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
@@ -14539,17 +14567,17 @@
         <v>8</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
@@ -14574,19 +14602,19 @@
         <v>8</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -14611,17 +14639,17 @@
         <v>8</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
@@ -14646,14 +14674,14 @@
         <v>22</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -14681,16 +14709,16 @@
         <v>22</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>851</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>854</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -14718,17 +14746,17 @@
         <v>8</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
@@ -14753,17 +14781,17 @@
         <v>8</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
@@ -14788,21 +14816,21 @@
         <v>8</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
@@ -14827,17 +14855,17 @@
         <v>22</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
@@ -14864,17 +14892,17 @@
         <v>8</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
@@ -14899,19 +14927,19 @@
         <v>8</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
@@ -14936,14 +14964,14 @@
         <v>22</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -14971,19 +14999,19 @@
         <v>8</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
@@ -15008,19 +15036,19 @@
         <v>8</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
@@ -15045,17 +15073,17 @@
         <v>8</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
@@ -15080,17 +15108,17 @@
         <v>8</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
@@ -15115,17 +15143,17 @@
         <v>8</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
@@ -15150,19 +15178,19 @@
         <v>8</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
@@ -15187,19 +15215,19 @@
         <v>8</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G254" s="5"/>
       <c r="H254" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
@@ -15224,19 +15252,19 @@
         <v>8</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
@@ -15261,17 +15289,17 @@
         <v>8</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
@@ -15296,17 +15324,17 @@
         <v>8</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
@@ -15331,17 +15359,17 @@
         <v>8</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
@@ -15366,17 +15394,17 @@
         <v>8</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
@@ -15401,10 +15429,10 @@
         <v>22</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5" t="s">
@@ -15436,19 +15464,19 @@
         <v>8</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
@@ -15473,19 +15501,19 @@
         <v>8</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
@@ -15510,17 +15538,17 @@
         <v>8</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
@@ -15545,21 +15573,21 @@
         <v>8</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G264" s="5"/>
       <c r="H264" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
@@ -15584,17 +15612,17 @@
         <v>8</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
@@ -15619,21 +15647,21 @@
         <v>8</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G266" s="5"/>
       <c r="H266" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
@@ -15658,17 +15686,17 @@
         <v>8</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
@@ -15693,19 +15721,19 @@
         <v>172</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
@@ -15730,21 +15758,21 @@
         <v>8</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F269" s="6"/>
       <c r="G269" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
@@ -15769,14 +15797,14 @@
         <v>22</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
@@ -15804,17 +15832,17 @@
         <v>8</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
@@ -15839,17 +15867,17 @@
         <v>8</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
@@ -15874,17 +15902,17 @@
         <v>8</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
@@ -15909,14 +15937,14 @@
         <v>22</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="13" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -15944,17 +15972,17 @@
         <v>8</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
@@ -15979,23 +16007,23 @@
         <v>8</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G276" s="5"/>
       <c r="H276" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
@@ -16020,17 +16048,17 @@
         <v>8</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
@@ -16055,17 +16083,17 @@
         <v>8</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
@@ -16090,19 +16118,19 @@
         <v>8</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G279" s="5"/>
       <c r="H279" s="5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
@@ -16127,17 +16155,17 @@
         <v>8</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
@@ -16162,17 +16190,17 @@
         <v>8</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
@@ -16197,17 +16225,17 @@
         <v>8</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
@@ -16232,10 +16260,10 @@
         <v>8</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5" t="s">
@@ -16244,7 +16272,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
@@ -16269,19 +16297,19 @@
         <v>8</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
@@ -16306,17 +16334,17 @@
         <v>8</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
@@ -16341,10 +16369,10 @@
         <v>8</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5" t="s">
@@ -16353,7 +16381,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
@@ -16378,17 +16406,17 @@
         <v>8</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
@@ -16413,19 +16441,19 @@
         <v>8</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G288" s="5"/>
       <c r="H288" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
@@ -16450,19 +16478,19 @@
         <v>8</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
@@ -16490,7 +16518,7 @@
         <v>121</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -16499,7 +16527,7 @@
       </c>
       <c r="G290" s="5"/>
       <c r="H290" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
@@ -16524,17 +16552,17 @@
         <v>8</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
@@ -16559,21 +16587,21 @@
         <v>8</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="G292" s="5"/>
       <c r="H292" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
@@ -16598,17 +16626,17 @@
         <v>8</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
@@ -16633,17 +16661,17 @@
         <v>8</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
@@ -16664,18 +16692,18 @@
       <c r="Y294" s="6"/>
     </row>
     <row r="295" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -16703,19 +16731,19 @@
         <v>8</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
@@ -16740,19 +16768,19 @@
         <v>8</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
@@ -16777,21 +16805,21 @@
         <v>8</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G298" s="5"/>
       <c r="H298" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
@@ -16816,19 +16844,19 @@
         <v>8</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
@@ -16853,17 +16881,17 @@
         <v>8</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
@@ -16888,17 +16916,17 @@
         <v>8</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
@@ -16923,17 +16951,17 @@
         <v>8</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
       <c r="H302" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
@@ -16958,19 +16986,19 @@
         <v>8</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303" s="5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
@@ -16995,19 +17023,19 @@
         <v>8</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
       <c r="H304" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
@@ -17032,10 +17060,10 @@
         <v>8</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="5" t="s">
@@ -17044,7 +17072,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
       <c r="H305" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
@@ -17065,22 +17093,24 @@
       <c r="Y305" s="6"/>
     </row>
     <row r="306" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
+      <c r="A306" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E306" s="17" t="s">
+        <v>1829</v>
+      </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
-      <c r="H306" s="5" t="s">
-        <v>1079</v>
-      </c>
+      <c r="H306" s="5"/>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
@@ -17104,21 +17134,17 @@
         <v>8</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="D307" s="5"/>
-      <c r="E307" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F307" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
       <c r="G307" s="5"/>
       <c r="H307" s="5" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
@@ -17143,17 +17169,21 @@
         <v>8</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1084</v>
+        <v>722</v>
       </c>
       <c r="D308" s="5"/>
-      <c r="E308" s="5"/>
-      <c r="F308" s="5"/>
+      <c r="E308" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>723</v>
+      </c>
       <c r="G308" s="5"/>
       <c r="H308" s="5" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
@@ -17178,17 +17208,17 @@
         <v>8</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
@@ -17213,21 +17243,17 @@
         <v>8</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
-      <c r="F310" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G310" s="5" t="s">
-        <v>1092</v>
-      </c>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
       <c r="H310" s="5" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
@@ -17252,21 +17278,21 @@
         <v>8</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D311" s="5"/>
-      <c r="E311" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E311" s="5"/>
       <c r="F311" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G311" s="5"/>
+        <v>1088</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>1089</v>
+      </c>
       <c r="H311" s="5" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
@@ -17291,19 +17317,21 @@
         <v>8</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F312" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>1093</v>
+      </c>
       <c r="G312" s="5"/>
       <c r="H312" s="5" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
@@ -17328,19 +17356,19 @@
         <v>8</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5" t="s">
-        <v>1103</v>
+        <v>184</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
       <c r="H313" s="5" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
@@ -17365,19 +17393,19 @@
         <v>8</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="5" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
       <c r="H314" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
@@ -17402,17 +17430,19 @@
         <v>8</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
+      <c r="E315" s="5" t="s">
+        <v>1104</v>
+      </c>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
       <c r="H315" s="5" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
@@ -17437,19 +17467,17 @@
         <v>8</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D316" s="5"/>
-      <c r="E316" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="E316" s="5"/>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
       <c r="H316" s="5" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
@@ -17474,19 +17502,19 @@
         <v>8</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="D317" s="5"/>
-      <c r="E317" s="5"/>
-      <c r="F317" s="5" t="s">
-        <v>1117</v>
-      </c>
+      <c r="E317" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F317" s="5"/>
       <c r="G317" s="5"/>
       <c r="H317" s="5" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
@@ -17511,19 +17539,19 @@
         <v>8</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="G318" s="5"/>
       <c r="H318" s="5" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
@@ -17548,17 +17576,19 @@
         <v>8</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
-      <c r="F319" s="5"/>
+      <c r="F319" s="5" t="s">
+        <v>1118</v>
+      </c>
       <c r="G319" s="5"/>
       <c r="H319" s="5" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
@@ -17579,26 +17609,22 @@
       <c r="Y319" s="6"/>
     </row>
     <row r="320" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>1126</v>
+      <c r="A320" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>1120</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>1129</v>
-      </c>
+        <v>1121</v>
+      </c>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
       <c r="F320" s="5"/>
-      <c r="G320" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5" t="s">
+        <v>1122</v>
+      </c>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
@@ -17618,22 +17644,26 @@
       <c r="Y320" s="6"/>
     </row>
     <row r="321" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>1131</v>
+      <c r="A321" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>1123</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D321" s="5"/>
-      <c r="E321" s="5"/>
+        <v>1124</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>1126</v>
+      </c>
       <c r="F321" s="5"/>
-      <c r="G321" s="5"/>
-      <c r="H321" s="5" t="s">
-        <v>1133</v>
-      </c>
+      <c r="G321" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H321" s="5"/>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
@@ -17657,19 +17687,17 @@
         <v>8</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="D322" s="5"/>
-      <c r="E322" s="5" t="s">
-        <v>1136</v>
-      </c>
+      <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
       <c r="H322" s="5" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
@@ -17690,24 +17718,24 @@
       <c r="Y322" s="6"/>
     </row>
     <row r="323" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>1138</v>
+      <c r="A323" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>1131</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E323" s="5"/>
+        <v>1132</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5" t="s">
+        <v>1133</v>
+      </c>
       <c r="F323" s="5"/>
-      <c r="G323" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5" t="s">
+        <v>1134</v>
+      </c>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
@@ -17727,24 +17755,24 @@
       <c r="Y323" s="6"/>
     </row>
     <row r="324" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>1142</v>
+      <c r="A324" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>1135</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5" t="s">
-        <v>1144</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E324" s="5"/>
       <c r="F324" s="5"/>
-      <c r="G324" s="5"/>
-      <c r="H324" s="5" t="s">
-        <v>1145</v>
-      </c>
+      <c r="G324" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H324" s="5"/>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
@@ -17768,19 +17796,19 @@
         <v>8</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="5" t="s">
-        <v>158</v>
+        <v>1141</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
       <c r="H325" s="5" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
@@ -17805,17 +17833,19 @@
         <v>8</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
+      <c r="E326" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
@@ -17840,19 +17870,17 @@
         <v>8</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
-      <c r="F327" s="5" t="s">
-        <v>1154</v>
-      </c>
+      <c r="F327" s="5"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
@@ -17877,21 +17905,19 @@
         <v>8</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>1158</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="G328" s="5"/>
       <c r="H328" s="5" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
@@ -17916,17 +17942,21 @@
         <v>8</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D329" s="5"/>
+        <v>1154</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>1155</v>
+      </c>
       <c r="E329" s="5"/>
-      <c r="F329" s="5"/>
+      <c r="F329" s="5" t="s">
+        <v>1156</v>
+      </c>
       <c r="G329" s="5"/>
       <c r="H329" s="5" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
@@ -17951,17 +17981,17 @@
         <v>8</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
@@ -17986,19 +18016,17 @@
         <v>8</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
-      <c r="F331" s="5" t="s">
-        <v>1169</v>
-      </c>
+      <c r="F331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
@@ -18023,19 +18051,19 @@
         <v>8</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5" t="s">
-        <v>315</v>
+        <v>1166</v>
       </c>
       <c r="G332" s="5"/>
       <c r="H332" s="5" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
@@ -18060,19 +18088,19 @@
         <v>8</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5" t="s">
-        <v>1176</v>
+        <v>315</v>
       </c>
       <c r="G333" s="5"/>
       <c r="H333" s="5" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
@@ -18097,17 +18125,19 @@
         <v>8</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
+      <c r="F334" s="5" t="s">
+        <v>1173</v>
+      </c>
       <c r="G334" s="5"/>
       <c r="H334" s="5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
@@ -18128,22 +18158,22 @@
       <c r="Y334" s="6"/>
     </row>
     <row r="335" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>1179</v>
+      <c r="A335" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>1173</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="D335" s="5"/>
-      <c r="E335" s="5" t="s">
-        <v>1181</v>
-      </c>
+      <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
-      <c r="H335" s="5"/>
+      <c r="H335" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
@@ -18163,22 +18193,22 @@
       <c r="Y335" s="6"/>
     </row>
     <row r="336" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>1182</v>
+      <c r="A336" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>1176</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
+      <c r="E336" s="5" t="s">
+        <v>1178</v>
+      </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
-      <c r="H336" s="5" t="s">
-        <v>1184</v>
-      </c>
+      <c r="H336" s="5"/>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
       <c r="K336" s="6"/>
@@ -18202,17 +18232,17 @@
         <v>8</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
@@ -18237,17 +18267,17 @@
         <v>8</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
@@ -18272,17 +18302,17 @@
         <v>8</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
@@ -18307,17 +18337,17 @@
         <v>8</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
@@ -18338,24 +18368,22 @@
       <c r="Y340" s="6"/>
     </row>
     <row r="341" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>1197</v>
+      <c r="A341" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>1191</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D341" s="5"/>
-      <c r="E341" s="5" t="s">
-        <v>1199</v>
-      </c>
+      <c r="E341" s="5"/>
       <c r="F341" s="5"/>
-      <c r="G341" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5" t="s">
+        <v>1193</v>
+      </c>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
@@ -18375,26 +18403,24 @@
       <c r="Y341" s="6"/>
     </row>
     <row r="342" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>1201</v>
+      <c r="A342" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>1194</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F342" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G342" s="5"/>
-      <c r="H342" s="5" t="s">
-        <v>1205</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H342" s="5"/>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
       <c r="K342" s="6"/>
@@ -18418,19 +18444,21 @@
         <v>8</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F343" s="5"/>
+        <v>1200</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>1201</v>
+      </c>
       <c r="G343" s="5"/>
       <c r="H343" s="5" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
@@ -18455,17 +18483,19 @@
         <v>8</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
+      <c r="E344" s="5" t="s">
+        <v>1205</v>
+      </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
@@ -18490,19 +18520,17 @@
         <v>8</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D345" s="5"/>
-      <c r="E345" s="5" t="s">
-        <v>1215</v>
-      </c>
+      <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
@@ -18527,19 +18555,19 @@
         <v>8</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="5" t="s">
-        <v>216</v>
+        <v>1212</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
@@ -18564,17 +18592,19 @@
         <v>8</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
+      <c r="E347" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
@@ -18599,19 +18629,17 @@
         <v>8</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D348" s="5"/>
-      <c r="E348" s="5" t="s">
-        <v>797</v>
-      </c>
+      <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
@@ -18632,20 +18660,24 @@
       <c r="Y348" s="6"/>
     </row>
     <row r="349" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>1226</v>
+      <c r="A349" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1220</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="E349" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
-      <c r="H349" s="5"/>
+      <c r="H349" s="5" t="s">
+        <v>1222</v>
+      </c>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
@@ -18665,26 +18697,20 @@
       <c r="Y349" s="6"/>
     </row>
     <row r="350" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>1228</v>
+      <c r="A350" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>1223</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D350" s="5"/>
-      <c r="E350" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F350" s="5" t="s">
-        <v>1231</v>
-      </c>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
       <c r="G350" s="5"/>
-      <c r="H350" s="5" t="s">
-        <v>1232</v>
-      </c>
+      <c r="H350" s="5"/>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
       <c r="K350" s="6"/>
@@ -18708,21 +18734,21 @@
         <v>8</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="5" t="s">
-        <v>32</v>
+        <v>1227</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="G351" s="5"/>
       <c r="H351" s="5" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
@@ -18747,17 +18773,21 @@
         <v>8</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="F352" s="5"/>
+      <c r="E352" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>1232</v>
+      </c>
       <c r="G352" s="5"/>
       <c r="H352" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
@@ -18778,29 +18808,21 @@
       <c r="Y352" s="6"/>
     </row>
     <row r="353" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D353" s="5" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E353" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F353" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G353" s="5" t="s">
-        <v>1245</v>
-      </c>
+      <c r="A353" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
       <c r="H353" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
@@ -18821,21 +18843,29 @@
       <c r="Y353" s="6"/>
     </row>
     <row r="354" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
-      <c r="F354" s="5"/>
-      <c r="G354" s="5"/>
+      <c r="A354" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>1242</v>
+      </c>
       <c r="H354" s="5" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
@@ -18860,17 +18890,17 @@
         <v>8</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
@@ -18895,17 +18925,17 @@
         <v>8</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
@@ -18930,17 +18960,17 @@
         <v>8</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
@@ -18965,17 +18995,17 @@
         <v>8</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
@@ -19000,17 +19030,17 @@
         <v>8</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
@@ -19035,17 +19065,17 @@
         <v>8</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
@@ -19070,17 +19100,17 @@
         <v>8</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
@@ -19105,19 +19135,17 @@
         <v>8</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
-      <c r="F362" s="5" t="s">
-        <v>1272</v>
-      </c>
+      <c r="F362" s="5"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
@@ -19142,21 +19170,19 @@
         <v>8</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="D363" s="5"/>
-      <c r="E363" s="5" t="s">
-        <v>1276</v>
-      </c>
+      <c r="E363" s="5"/>
       <c r="F363" s="5" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="G363" s="5"/>
       <c r="H363" s="5" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
@@ -19181,19 +19207,21 @@
         <v>8</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F364" s="5"/>
+        <v>1273</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>1274</v>
+      </c>
       <c r="G364" s="5"/>
       <c r="H364" s="5" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
@@ -19218,23 +19246,19 @@
         <v>8</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="5" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F365" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G365" s="5" t="s">
-        <v>1286</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
       <c r="H365" s="5" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
@@ -19259,21 +19283,23 @@
         <v>8</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>1290</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="D366" s="5"/>
       <c r="E366" s="5" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F366" s="5"/>
-      <c r="G366" s="5"/>
+        <v>1281</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>1283</v>
+      </c>
       <c r="H366" s="5" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
@@ -19298,19 +19324,21 @@
         <v>8</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-      <c r="F367" s="5" t="s">
-        <v>1295</v>
-      </c>
+        <v>1286</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F367" s="5"/>
       <c r="G367" s="5"/>
       <c r="H367" s="5" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
@@ -19335,19 +19363,19 @@
         <v>8</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5" t="s">
-        <v>684</v>
+        <v>1292</v>
       </c>
       <c r="G368" s="5"/>
       <c r="H368" s="5" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
@@ -19372,19 +19400,19 @@
         <v>8</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D369" s="5"/>
-      <c r="E369" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="G369" s="5"/>
       <c r="H369" s="5" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
@@ -19409,23 +19437,19 @@
         <v>8</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D370" s="5" t="s">
-        <v>1305</v>
-      </c>
+        <v>1298</v>
+      </c>
+      <c r="D370" s="5"/>
       <c r="E370" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F370" s="5" t="s">
-        <v>1306</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="F370" s="5"/>
       <c r="G370" s="5"/>
       <c r="H370" s="5" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
@@ -19450,19 +19474,23 @@
         <v>8</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>137</v>
+        <v>1300</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
+        <v>1301</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F371" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G371" s="5"/>
       <c r="H371" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
@@ -19487,19 +19515,19 @@
         <v>8</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1311</v>
+        <v>137</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="D372" s="5"/>
-      <c r="E372" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5" t="s">
+        <v>1306</v>
+      </c>
       <c r="G372" s="5"/>
       <c r="H372" s="5" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
@@ -19524,19 +19552,19 @@
         <v>8</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="5" t="s">
-        <v>1215</v>
+        <v>1310</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
@@ -19561,23 +19589,19 @@
         <v>8</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F374" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G374" s="5" t="s">
-        <v>1322</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
       <c r="H374" s="5" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
@@ -19602,19 +19626,23 @@
         <v>8</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F375" s="5"/>
-      <c r="G375" s="5"/>
+        <v>1317</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="H375" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
@@ -19639,19 +19667,19 @@
         <v>8</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
@@ -19676,19 +19704,19 @@
         <v>8</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
@@ -19713,21 +19741,19 @@
         <v>8</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F378" s="5" t="s">
-        <v>1335</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="F378" s="5"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
@@ -19752,17 +19778,21 @@
         <v>8</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
-      <c r="F379" s="5"/>
+      <c r="E379" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>1332</v>
+      </c>
       <c r="G379" s="5"/>
       <c r="H379" s="5" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
@@ -19787,19 +19817,17 @@
         <v>8</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="D380" s="5"/>
-      <c r="E380" s="5" t="s">
-        <v>1042</v>
-      </c>
+      <c r="E380" s="5"/>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
@@ -19824,19 +19852,19 @@
         <v>8</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="5" t="s">
-        <v>1345</v>
+        <v>1039</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
@@ -19861,17 +19889,19 @@
         <v>8</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
+      <c r="E382" s="5" t="s">
+        <v>1342</v>
+      </c>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
@@ -19892,24 +19922,22 @@
       <c r="Y382" s="6"/>
     </row>
     <row r="383" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B383" s="8" t="s">
-        <v>222</v>
+      <c r="A383" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>1344</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D383" s="5"/>
-      <c r="E383" s="5" t="s">
-        <v>1351</v>
-      </c>
+      <c r="E383" s="5"/>
       <c r="F383" s="5"/>
-      <c r="G383" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5" t="s">
+        <v>1346</v>
+      </c>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
@@ -19929,22 +19957,24 @@
       <c r="Y383" s="6"/>
     </row>
     <row r="384" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>1352</v>
+      <c r="A384" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
+      <c r="E384" s="5" t="s">
+        <v>1348</v>
+      </c>
       <c r="F384" s="5"/>
-      <c r="G384" s="5"/>
-      <c r="H384" s="5" t="s">
-        <v>1354</v>
-      </c>
+      <c r="G384" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H384" s="5"/>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
@@ -19968,17 +19998,17 @@
         <v>8</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
@@ -20003,17 +20033,17 @@
         <v>8</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
@@ -20038,19 +20068,17 @@
         <v>8</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
-      <c r="F387" s="5" t="s">
-        <v>1363</v>
-      </c>
+      <c r="F387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
@@ -20075,19 +20103,19 @@
         <v>8</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="G388" s="5"/>
       <c r="H388" s="5" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
@@ -20112,21 +20140,19 @@
         <v>8</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>986</v>
+        <v>1362</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G389" s="5" t="s">
-        <v>984</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="G389" s="5"/>
       <c r="H389" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
@@ -20151,17 +20177,21 @@
         <v>8</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1372</v>
+        <v>983</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
-      <c r="F390" s="5"/>
-      <c r="G390" s="5"/>
+      <c r="F390" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>981</v>
+      </c>
       <c r="H390" s="5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
@@ -20186,17 +20216,17 @@
         <v>8</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
@@ -20221,23 +20251,17 @@
         <v>8</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F392" s="5" t="s">
-        <v>1381</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
@@ -20258,21 +20282,27 @@
       <c r="Y392" s="6"/>
     </row>
     <row r="393" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>1383</v>
+      <c r="A393" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1375</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
-      <c r="F393" s="5"/>
+        <v>1376</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>1378</v>
+      </c>
       <c r="G393" s="5"/>
       <c r="H393" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
@@ -20293,21 +20323,21 @@
       <c r="Y393" s="6"/>
     </row>
     <row r="394" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>1386</v>
+      <c r="A394" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>1380</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
@@ -20332,17 +20362,17 @@
         <v>8</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
@@ -20367,17 +20397,17 @@
         <v>8</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
@@ -20402,17 +20432,17 @@
         <v>8</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
@@ -20437,17 +20467,17 @@
         <v>8</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
@@ -20472,19 +20502,17 @@
         <v>8</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="D399" s="5"/>
-      <c r="E399" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
@@ -20509,10 +20537,10 @@
         <v>8</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="5" t="s">
@@ -20521,7 +20549,7 @@
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
@@ -20546,17 +20574,19 @@
         <v>8</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
+      <c r="E401" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
@@ -20581,19 +20611,17 @@
         <v>8</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="D402" s="5"/>
-      <c r="E402" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F402" s="6"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
@@ -20618,17 +20646,19 @@
         <v>8</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="F403" s="5"/>
+      <c r="E403" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F403" s="6"/>
       <c r="G403" s="5"/>
-      <c r="H403" s="11" t="s">
-        <v>1415</v>
+      <c r="H403" s="5" t="s">
+        <v>1409</v>
       </c>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
@@ -20653,19 +20683,17 @@
         <v>8</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D404" s="5"/>
-      <c r="E404" s="5" t="s">
-        <v>1418</v>
-      </c>
+      <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
-      <c r="H404" s="5" t="s">
-        <v>1419</v>
+      <c r="H404" s="11" t="s">
+        <v>1412</v>
       </c>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
@@ -20690,19 +20718,19 @@
         <v>8</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
-      <c r="F405" s="5" t="s">
-        <v>1422</v>
-      </c>
+      <c r="E405" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
@@ -20727,17 +20755,19 @@
         <v>8</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
-      <c r="F406" s="5"/>
+      <c r="F406" s="5" t="s">
+        <v>1419</v>
+      </c>
       <c r="G406" s="5"/>
       <c r="H406" s="5" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
@@ -20762,17 +20792,17 @@
         <v>8</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
-      <c r="H407" s="11" t="s">
-        <v>1429</v>
+      <c r="H407" s="5" t="s">
+        <v>1423</v>
       </c>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
@@ -20797,17 +20827,17 @@
         <v>8</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
-      <c r="H408" s="5" t="s">
-        <v>1432</v>
+      <c r="H408" s="11" t="s">
+        <v>1426</v>
       </c>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
@@ -20832,17 +20862,17 @@
         <v>8</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
-      <c r="H409" s="11" t="s">
-        <v>1435</v>
+      <c r="H409" s="5" t="s">
+        <v>1429</v>
       </c>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
@@ -20867,19 +20897,17 @@
         <v>8</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
-      <c r="F410" s="5" t="s">
-        <v>1433</v>
-      </c>
+      <c r="F410" s="5"/>
       <c r="G410" s="5"/>
-      <c r="H410" s="5" t="s">
-        <v>1438</v>
+      <c r="H410" s="11" t="s">
+        <v>1432</v>
       </c>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
@@ -20900,20 +20928,24 @@
       <c r="Y410" s="6"/>
     </row>
     <row r="411" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B411" s="15" t="s">
-        <v>1439</v>
+      <c r="A411" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>1433</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
+      <c r="F411" s="5" t="s">
+        <v>1430</v>
+      </c>
       <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
+      <c r="H411" s="5" t="s">
+        <v>1435</v>
+      </c>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
@@ -20933,22 +20965,20 @@
       <c r="Y411" s="6"/>
     </row>
     <row r="412" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>1441</v>
+      <c r="A412" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B412" s="15" t="s">
+        <v>1436</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
-      <c r="H412" s="5" t="s">
-        <v>1443</v>
-      </c>
+      <c r="H412" s="5"/>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
       <c r="K412" s="6"/>
@@ -20972,17 +21002,17 @@
         <v>8</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
@@ -21007,19 +21037,17 @@
         <v>8</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="D414" s="5"/>
-      <c r="E414" s="5" t="s">
-        <v>1449</v>
-      </c>
+      <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
@@ -21044,17 +21072,19 @@
         <v>8</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
+      <c r="E415" s="5" t="s">
+        <v>1446</v>
+      </c>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
@@ -21079,17 +21109,17 @@
         <v>8</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
@@ -21114,17 +21144,17 @@
         <v>8</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
@@ -21149,21 +21179,17 @@
         <v>8</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="D418" s="5"/>
-      <c r="E418" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F418" s="5" t="s">
-        <v>1462</v>
-      </c>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
@@ -21188,19 +21214,21 @@
         <v>8</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="F419" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>1459</v>
+      </c>
       <c r="G419" s="5"/>
       <c r="H419" s="5" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
@@ -21221,23 +21249,23 @@
       <c r="Y419" s="6"/>
     </row>
     <row r="420" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B420" s="8" t="s">
-        <v>1469</v>
+      <c r="A420" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="5" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
@@ -21258,23 +21286,23 @@
       <c r="Y420" s="6"/>
     </row>
     <row r="421" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>1472</v>
+      <c r="A421" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C421" s="17" t="s">
+        <v>1830</v>
       </c>
       <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
-      <c r="F421" s="5" t="s">
-        <v>652</v>
-      </c>
+      <c r="E421" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F421" s="5"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
@@ -21299,19 +21327,19 @@
         <v>8</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1474</v>
+        <v>651</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5" t="s">
-        <v>1476</v>
+        <v>649</v>
       </c>
       <c r="G422" s="5"/>
       <c r="H422" s="5" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
@@ -21336,19 +21364,19 @@
         <v>8</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1117</v>
+        <v>1470</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="G423" s="5"/>
       <c r="H423" s="5" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
@@ -21373,19 +21401,19 @@
         <v>8</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1481</v>
+        <v>1114</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="G424" s="5"/>
       <c r="H424" s="5" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
@@ -21410,17 +21438,19 @@
         <v>8</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
-      <c r="F425" s="5"/>
+      <c r="F425" s="5" t="s">
+        <v>1479</v>
+      </c>
       <c r="G425" s="5"/>
       <c r="H425" s="5" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
@@ -21445,19 +21475,17 @@
         <v>8</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="D426" s="5"/>
-      <c r="E426" s="5" t="s">
-        <v>1418</v>
-      </c>
+      <c r="E426" s="5"/>
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
@@ -21482,21 +21510,19 @@
         <v>8</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="D427" s="5"/>
-      <c r="E427" s="5"/>
-      <c r="F427" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G427" s="5" t="s">
-        <v>1494</v>
-      </c>
+      <c r="E427" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
       <c r="H427" s="5" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
@@ -21521,21 +21547,21 @@
         <v>8</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1462</v>
+        <v>1487</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="D428" s="5"/>
-      <c r="E428" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E428" s="5"/>
       <c r="F428" s="5" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G428" s="5"/>
+        <v>1489</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>1490</v>
+      </c>
       <c r="H428" s="5" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
@@ -21560,19 +21586,21 @@
         <v>8</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1499</v>
+        <v>1459</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F429" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>1493</v>
+      </c>
       <c r="G429" s="5"/>
       <c r="H429" s="5" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
@@ -21597,17 +21625,19 @@
         <v>8</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
+      <c r="E430" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
@@ -21632,21 +21662,17 @@
         <v>8</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="D431" s="5"/>
-      <c r="E431" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F431" s="5" t="s">
-        <v>397</v>
-      </c>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
@@ -21671,17 +21697,21 @@
         <v>8</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="D432" s="5"/>
-      <c r="E432" s="5"/>
-      <c r="F432" s="5"/>
+      <c r="E432" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="G432" s="5"/>
       <c r="H432" s="5" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
@@ -21706,19 +21736,17 @@
         <v>8</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="D433" s="5"/>
-      <c r="E433" s="5" t="s">
-        <v>1514</v>
-      </c>
+      <c r="E433" s="5"/>
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
@@ -21743,17 +21771,19 @@
         <v>8</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
+      <c r="E434" s="5" t="s">
+        <v>1510</v>
+      </c>
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
@@ -21778,21 +21808,17 @@
         <v>8</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
-      <c r="F435" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G435" s="5" t="s">
-        <v>1522</v>
-      </c>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
       <c r="H435" s="5" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
@@ -21817,17 +21843,21 @@
         <v>8</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
-      <c r="F436" s="5"/>
-      <c r="G436" s="5"/>
+      <c r="F436" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>1518</v>
+      </c>
       <c r="H436" s="5" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
@@ -21852,17 +21882,17 @@
         <v>8</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
@@ -21887,21 +21917,17 @@
         <v>8</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
-      <c r="F438" s="5" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G438" s="5" t="s">
-        <v>1533</v>
-      </c>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
       <c r="H438" s="5" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
@@ -21926,23 +21952,21 @@
         <v>8</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="D439" s="5"/>
-      <c r="E439" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E439" s="5"/>
       <c r="F439" s="5" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
@@ -21967,21 +21991,23 @@
         <v>8</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="G440" s="5"/>
+        <v>1533</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>1534</v>
+      </c>
       <c r="H440" s="5" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
@@ -22006,23 +22032,21 @@
         <v>8</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G441" s="5" t="s">
-        <v>1546</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="G441" s="5"/>
       <c r="H441" s="5" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
@@ -22047,17 +22071,23 @@
         <v>8</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="D442" s="5"/>
-      <c r="E442" s="5"/>
-      <c r="F442" s="5"/>
-      <c r="G442" s="5"/>
+      <c r="E442" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>1542</v>
+      </c>
       <c r="H442" s="5" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
@@ -22082,17 +22112,17 @@
         <v>8</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
@@ -22117,19 +22147,17 @@
         <v>8</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="D444" s="5"/>
-      <c r="E444" s="5" t="s">
-        <v>1556</v>
-      </c>
+      <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
@@ -22154,17 +22182,19 @@
         <v>8</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="D445" s="5"/>
-      <c r="E445" s="5"/>
+      <c r="E445" s="5" t="s">
+        <v>1552</v>
+      </c>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
@@ -22189,17 +22219,17 @@
         <v>8</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
@@ -22220,27 +22250,21 @@
       <c r="Y446" s="6"/>
     </row>
     <row r="447" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B447" s="8" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C447" s="16" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D447" s="5" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E447" s="5" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F447" s="5" t="s">
-        <v>1569</v>
-      </c>
+      <c r="A447" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
@@ -22265,17 +22289,23 @@
         <v>172</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D448" s="5"/>
-      <c r="E448" s="6"/>
-      <c r="F448" s="5"/>
+        <v>1561</v>
+      </c>
+      <c r="C448" s="16" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>1565</v>
+      </c>
       <c r="G448" s="5"/>
       <c r="H448" s="5" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
@@ -22296,21 +22326,21 @@
       <c r="Y448" s="6"/>
     </row>
     <row r="449" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B449" s="5" t="s">
-        <v>1573</v>
+      <c r="A449" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1566</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="6"/>
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
@@ -22335,17 +22365,17 @@
         <v>8</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="D450" s="5"/>
-      <c r="E450" s="5"/>
+      <c r="E450" s="6"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
@@ -22366,23 +22396,21 @@
       <c r="Y450" s="6"/>
     </row>
     <row r="451" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>1579</v>
+      <c r="A451" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>1572</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="D451" s="5"/>
-      <c r="E451" s="6" t="s">
-        <v>1582</v>
-      </c>
+      <c r="E451" s="5"/>
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
@@ -22403,21 +22431,23 @@
       <c r="Y451" s="6"/>
     </row>
     <row r="452" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A452" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B452" s="5" t="s">
-        <v>1583</v>
+      <c r="A452" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>1575</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="D452" s="5"/>
-      <c r="E452" s="5"/>
+      <c r="E452" s="6" t="s">
+        <v>1578</v>
+      </c>
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
@@ -22442,21 +22472,17 @@
         <v>8</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="D453" s="5"/>
-      <c r="E453" s="5" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F453" s="5" t="s">
-        <v>1589</v>
-      </c>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
@@ -22481,21 +22507,21 @@
         <v>8</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="5" t="s">
-        <v>1028</v>
+        <v>1584</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
@@ -22520,21 +22546,21 @@
         <v>8</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="5" t="s">
-        <v>1597</v>
+        <v>1025</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="G455" s="5"/>
       <c r="H455" s="5" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
@@ -22559,19 +22585,21 @@
         <v>8</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="D456" s="5"/>
-      <c r="E456" s="5"/>
+      <c r="E456" s="5" t="s">
+        <v>1593</v>
+      </c>
       <c r="F456" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5" t="s">
         <v>1595</v>
-      </c>
-      <c r="G456" s="5"/>
-      <c r="H456" s="11" t="s">
-        <v>1602</v>
       </c>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
@@ -22596,17 +22624,19 @@
         <v>8</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
-      <c r="F457" s="5"/>
+      <c r="F457" s="5" t="s">
+        <v>1591</v>
+      </c>
       <c r="G457" s="5"/>
-      <c r="H457" s="5" t="s">
-        <v>1605</v>
+      <c r="H457" s="11" t="s">
+        <v>1598</v>
       </c>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
@@ -22631,17 +22661,17 @@
         <v>8</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
@@ -22666,21 +22696,17 @@
         <v>8</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="D459" s="5"/>
-      <c r="E459" s="5" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F459" s="5" t="s">
-        <v>1586</v>
-      </c>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
@@ -22705,19 +22731,21 @@
         <v>8</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1611</v>
+        <v>1585</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="5" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F460" s="5"/>
+        <v>1584</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>1582</v>
+      </c>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
@@ -22742,19 +22770,19 @@
         <v>8</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="5" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
@@ -22779,17 +22807,19 @@
         <v>8</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="D462" s="5"/>
-      <c r="E462" s="5"/>
+      <c r="E462" s="5" t="s">
+        <v>1613</v>
+      </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
@@ -22810,26 +22840,22 @@
       <c r="Y462" s="6"/>
     </row>
     <row r="463" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B463" s="8" t="s">
-        <v>1622</v>
+      <c r="A463" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>1615</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D463" s="5" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E463" s="5" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>1626</v>
-      </c>
+        <v>1616</v>
+      </c>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
       <c r="G463" s="5"/>
-      <c r="H463" s="5"/>
+      <c r="H463" s="5" t="s">
+        <v>1617</v>
+      </c>
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
       <c r="K463" s="6"/>
@@ -22849,22 +22875,26 @@
       <c r="Y463" s="6"/>
     </row>
     <row r="464" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B464" s="5" t="s">
-        <v>1627</v>
+      <c r="A464" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>1618</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D464" s="5"/>
-      <c r="E464" s="5"/>
-      <c r="F464" s="5"/>
+        <v>1619</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>1622</v>
+      </c>
       <c r="G464" s="5"/>
-      <c r="H464" s="5" t="s">
-        <v>1629</v>
-      </c>
+      <c r="H464" s="5"/>
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
       <c r="K464" s="6"/>
@@ -22884,22 +22914,22 @@
       <c r="Y464" s="6"/>
     </row>
     <row r="465" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>1630</v>
+      <c r="A465" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>1623</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="D465" s="5"/>
-      <c r="E465" s="10" t="s">
-        <v>1632</v>
-      </c>
+      <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
-      <c r="H465" s="5"/>
+      <c r="H465" s="5" t="s">
+        <v>1625</v>
+      </c>
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
       <c r="K465" s="6"/>
@@ -22920,23 +22950,21 @@
     </row>
     <row r="466" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="7" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="10" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
-      <c r="H466" s="5" t="s">
-        <v>1633</v>
-      </c>
+      <c r="H466" s="5"/>
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
       <c r="K466" s="6"/>
@@ -22957,23 +22985,23 @@
     </row>
     <row r="467" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="10" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="F467" s="5"/>
-      <c r="G467" s="5" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5" t="s">
+        <v>1629</v>
+      </c>
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
       <c r="K467" s="6"/>
@@ -22993,24 +23021,24 @@
       <c r="Y467" s="6"/>
     </row>
     <row r="468" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A468" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B468" s="5" t="s">
-        <v>1641</v>
+      <c r="A468" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>1633</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="D468" s="5"/>
-      <c r="E468" s="5" t="s">
-        <v>158</v>
+      <c r="E468" s="10" t="s">
+        <v>1635</v>
       </c>
       <c r="F468" s="5"/>
-      <c r="G468" s="5"/>
-      <c r="H468" s="5" t="s">
-        <v>1643</v>
-      </c>
+      <c r="G468" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H468" s="5"/>
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
       <c r="K468" s="6"/>
@@ -23034,17 +23062,19 @@
         <v>8</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="D469" s="5"/>
-      <c r="E469" s="5"/>
+      <c r="E469" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
@@ -23069,17 +23099,17 @@
         <v>8</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
@@ -23104,19 +23134,17 @@
         <v>8</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="D471" s="5"/>
-      <c r="E471" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
@@ -23141,17 +23169,19 @@
         <v>8</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="D472" s="5"/>
-      <c r="E472" s="5"/>
+      <c r="E472" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
@@ -23176,17 +23206,17 @@
         <v>8</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
@@ -23211,21 +23241,17 @@
         <v>8</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="D474" s="5"/>
-      <c r="E474" s="5" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F474" s="5" t="s">
-        <v>1662</v>
-      </c>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
@@ -23250,19 +23276,21 @@
         <v>8</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="D475" s="5"/>
-      <c r="E475" s="5"/>
+      <c r="E475" s="5" t="s">
+        <v>1657</v>
+      </c>
       <c r="F475" s="5" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
@@ -23287,19 +23315,19 @@
         <v>8</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="D476" s="5"/>
-      <c r="E476" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5" t="s">
+        <v>1662</v>
+      </c>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
@@ -23324,19 +23352,19 @@
         <v>8</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="5" t="s">
-        <v>1107</v>
+        <v>184</v>
       </c>
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
@@ -23361,21 +23389,19 @@
         <v>8</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F478" s="5" t="s">
-        <v>1676</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="F478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
@@ -23400,17 +23426,21 @@
         <v>8</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
-      <c r="F479" s="5"/>
+      <c r="E479" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>1672</v>
+      </c>
       <c r="G479" s="5"/>
       <c r="H479" s="5" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
@@ -23435,19 +23465,17 @@
         <v>8</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="D480" s="5"/>
-      <c r="E480" s="5" t="s">
-        <v>1683</v>
-      </c>
+      <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
@@ -23472,17 +23500,19 @@
         <v>8</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D481" s="5"/>
-      <c r="E481" s="5"/>
+      <c r="E481" s="5" t="s">
+        <v>1679</v>
+      </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
@@ -23507,17 +23537,17 @@
         <v>8</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
@@ -23542,21 +23572,17 @@
         <v>8</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="D483" s="5"/>
-      <c r="E483" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F483" s="5" t="s">
-        <v>1694</v>
-      </c>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
@@ -23581,19 +23607,21 @@
         <v>8</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="5" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F484" s="5"/>
+        <v>1689</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>1690</v>
+      </c>
       <c r="G484" s="5"/>
       <c r="H484" s="5" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
@@ -23618,17 +23646,19 @@
         <v>8</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="D485" s="5"/>
-      <c r="E485" s="5"/>
+      <c r="E485" s="5" t="s">
+        <v>1694</v>
+      </c>
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
@@ -23653,19 +23683,17 @@
         <v>8</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="D486" s="5"/>
-      <c r="E486" s="5" t="s">
-        <v>1705</v>
-      </c>
+      <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
@@ -23686,24 +23714,24 @@
       <c r="Y486" s="6"/>
     </row>
     <row r="487" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B487" s="8" t="s">
-        <v>1707</v>
+      <c r="A487" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>1699</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D487" s="5" t="s">
-        <v>1709</v>
-      </c>
+        <v>1700</v>
+      </c>
+      <c r="D487" s="5"/>
       <c r="E487" s="5" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
-      <c r="H487" s="5"/>
+      <c r="H487" s="5" t="s">
+        <v>1702</v>
+      </c>
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
       <c r="K487" s="6"/>
@@ -23723,22 +23751,24 @@
       <c r="Y487" s="6"/>
     </row>
     <row r="488" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B488" s="5" t="s">
-        <v>1711</v>
+      <c r="A488" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>1703</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D488" s="5"/>
-      <c r="E488" s="5"/>
+        <v>1704</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>1706</v>
+      </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
-      <c r="H488" s="5" t="s">
-        <v>1713</v>
-      </c>
+      <c r="H488" s="5"/>
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
       <c r="K488" s="6"/>
@@ -23762,17 +23792,17 @@
         <v>8</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
@@ -23797,19 +23827,17 @@
         <v>8</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
-      <c r="F490" s="5" t="s">
-        <v>1719</v>
-      </c>
+      <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
@@ -23834,17 +23862,19 @@
         <v>8</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
-      <c r="F491" s="5"/>
+      <c r="F491" s="5" t="s">
+        <v>1715</v>
+      </c>
       <c r="G491" s="5"/>
       <c r="H491" s="5" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
@@ -23869,19 +23899,17 @@
         <v>8</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="D492" s="5"/>
-      <c r="E492" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
@@ -23902,22 +23930,24 @@
       <c r="Y492" s="6"/>
     </row>
     <row r="493" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B493" s="8" t="s">
-        <v>1727</v>
+      <c r="A493" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>1720</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="5" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
-      <c r="H493" s="5"/>
+      <c r="H493" s="5" t="s">
+        <v>1722</v>
+      </c>
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
       <c r="K493" s="6"/>
@@ -23937,24 +23967,22 @@
       <c r="Y493" s="6"/>
     </row>
     <row r="494" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B494" s="5" t="s">
-        <v>1729</v>
+      <c r="A494" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>1723</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="5" t="s">
-        <v>1215</v>
+        <v>292</v>
       </c>
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
-      <c r="H494" s="5" t="s">
-        <v>1731</v>
-      </c>
+      <c r="H494" s="5"/>
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
       <c r="K494" s="6"/>
@@ -23978,17 +24006,19 @@
         <v>8</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="D495" s="5"/>
-      <c r="E495" s="5"/>
+      <c r="E495" s="5" t="s">
+        <v>1212</v>
+      </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
@@ -24013,17 +24043,17 @@
         <v>8</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
@@ -24048,19 +24078,17 @@
         <v>8</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
-      <c r="F497" s="5" t="s">
-        <v>1740</v>
-      </c>
+      <c r="F497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
@@ -24085,19 +24113,19 @@
         <v>8</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="D498" s="5"/>
-      <c r="E498" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F498" s="5"/>
+      <c r="E498" s="5"/>
+      <c r="F498" s="5" t="s">
+        <v>1736</v>
+      </c>
       <c r="G498" s="5"/>
       <c r="H498" s="5" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
@@ -24122,17 +24150,19 @@
         <v>8</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="D499" s="5"/>
-      <c r="E499" s="5"/>
+      <c r="E499" s="5" t="s">
+        <v>1212</v>
+      </c>
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
@@ -24157,19 +24187,17 @@
         <v>8</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
-      <c r="F500" s="5" t="s">
-        <v>1750</v>
-      </c>
+      <c r="F500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
@@ -24194,17 +24222,19 @@
         <v>8</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
-      <c r="F501" s="5"/>
+      <c r="F501" s="5" t="s">
+        <v>1746</v>
+      </c>
       <c r="G501" s="5"/>
       <c r="H501" s="5" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
@@ -24225,22 +24255,22 @@
       <c r="Y501" s="6"/>
     </row>
     <row r="502" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B502" s="8" t="s">
-        <v>1755</v>
+      <c r="A502" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1748</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="D502" s="5"/>
-      <c r="E502" s="5" t="s">
-        <v>868</v>
-      </c>
+      <c r="E502" s="5"/>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
-      <c r="H502" s="5"/>
+      <c r="H502" s="5" t="s">
+        <v>1750</v>
+      </c>
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
       <c r="K502" s="6"/>
@@ -24260,26 +24290,22 @@
       <c r="Y502" s="6"/>
     </row>
     <row r="503" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B503" s="5" t="s">
-        <v>1757</v>
+      <c r="A503" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1751</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F503" s="5" t="s">
-        <v>1760</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="F503" s="5"/>
       <c r="G503" s="5"/>
-      <c r="H503" s="5" t="s">
-        <v>1761</v>
-      </c>
+      <c r="H503" s="5"/>
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6"/>
@@ -24299,22 +24325,26 @@
       <c r="Y503" s="6"/>
     </row>
     <row r="504" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B504" s="8" t="s">
-        <v>1762</v>
+      <c r="A504" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>1753</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F504" s="5"/>
+        <v>1755</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>1756</v>
+      </c>
       <c r="G504" s="5"/>
-      <c r="H504" s="5"/>
+      <c r="H504" s="5" t="s">
+        <v>1757</v>
+      </c>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
       <c r="K504" s="6"/>
@@ -24334,22 +24364,22 @@
       <c r="Y504" s="6"/>
     </row>
     <row r="505" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>1765</v>
+      <c r="A505" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1758</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
+      <c r="E505" s="5" t="s">
+        <v>1760</v>
+      </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
-      <c r="H505" s="5" t="s">
-        <v>1767</v>
-      </c>
+      <c r="H505" s="5"/>
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
       <c r="K505" s="6"/>
@@ -24373,21 +24403,17 @@
         <v>8</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="D506" s="5"/>
-      <c r="E506" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F506" s="5" t="s">
-        <v>1770</v>
-      </c>
+      <c r="E506" s="5"/>
+      <c r="F506" s="5"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
@@ -24412,19 +24438,21 @@
         <v>8</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="D507" s="5"/>
-      <c r="E507" s="5"/>
+      <c r="E507" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F507" s="5" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="G507" s="5"/>
       <c r="H507" s="5" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
@@ -24449,19 +24477,19 @@
         <v>8</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="G508" s="5"/>
       <c r="H508" s="5" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
@@ -24486,19 +24514,19 @@
         <v>8</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="G509" s="5"/>
       <c r="H509" s="5" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
@@ -24523,19 +24551,19 @@
         <v>8</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="G510" s="5"/>
       <c r="H510" s="5" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
@@ -24560,21 +24588,19 @@
         <v>8</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="D511" s="5"/>
-      <c r="E511" s="5" t="s">
-        <v>1790</v>
-      </c>
+      <c r="E511" s="5"/>
       <c r="F511" s="5" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="G511" s="5"/>
       <c r="H511" s="5" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -24599,17 +24625,21 @@
         <v>8</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D512" s="5"/>
-      <c r="E512" s="5"/>
-      <c r="F512" s="5"/>
+      <c r="E512" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>1787</v>
+      </c>
       <c r="G512" s="5"/>
       <c r="H512" s="5" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
@@ -24634,17 +24664,17 @@
         <v>8</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
@@ -24669,17 +24699,17 @@
         <v>8</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
@@ -24704,19 +24734,17 @@
         <v>8</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
-      <c r="F515" s="5" t="s">
-        <v>1804</v>
-      </c>
+      <c r="F515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
@@ -24741,21 +24769,19 @@
         <v>8</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="D516" s="5"/>
-      <c r="E516" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E516" s="5"/>
       <c r="F516" s="5" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="G516" s="5"/>
       <c r="H516" s="5" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
@@ -24780,17 +24806,21 @@
         <v>8</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="D517" s="5"/>
-      <c r="E517" s="5"/>
-      <c r="F517" s="5"/>
+      <c r="E517" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>1804</v>
+      </c>
       <c r="G517" s="5"/>
       <c r="H517" s="5" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
@@ -24815,23 +24845,17 @@
         <v>8</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="D518" s="5"/>
-      <c r="E518" s="5" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F518" s="5" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G518" s="5" t="s">
-        <v>1817</v>
-      </c>
+      <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+      <c r="G518" s="5"/>
       <c r="H518" s="5" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
@@ -24856,17 +24880,23 @@
         <v>8</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="D519" s="5"/>
-      <c r="E519" s="5"/>
-      <c r="F519" s="5"/>
-      <c r="G519" s="5"/>
+      <c r="E519" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>1813</v>
+      </c>
       <c r="H519" s="5" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
@@ -24891,19 +24921,17 @@
         <v>8</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="D520" s="5"/>
-      <c r="E520" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="E520" s="5"/>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
@@ -24928,17 +24956,19 @@
         <v>8</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="D521" s="5"/>
-      <c r="E521" s="5"/>
+      <c r="E521" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
@@ -24959,14 +24989,22 @@
       <c r="Y521" s="6"/>
     </row>
     <row r="522" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="4"/>
-      <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
-      <c r="D522" s="6"/>
-      <c r="E522" s="6"/>
-      <c r="F522" s="6"/>
-      <c r="G522" s="6"/>
-      <c r="H522" s="6"/>
+      <c r="A522" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5"/>
+      <c r="H522" s="5" t="s">
+        <v>1823</v>
+      </c>
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>
       <c r="K522" s="6"/>
@@ -38782,13 +38820,40 @@
       <c r="X1033" s="6"/>
       <c r="Y1033" s="6"/>
     </row>
+    <row r="1034" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="4"/>
+      <c r="B1034" s="6"/>
+      <c r="C1034" s="6"/>
+      <c r="D1034" s="6"/>
+      <c r="E1034" s="6"/>
+      <c r="F1034" s="6"/>
+      <c r="G1034" s="6"/>
+      <c r="H1034" s="6"/>
+      <c r="I1034" s="6"/>
+      <c r="J1034" s="6"/>
+      <c r="K1034" s="6"/>
+      <c r="L1034" s="6"/>
+      <c r="M1034" s="6"/>
+      <c r="N1034" s="6"/>
+      <c r="O1034" s="6"/>
+      <c r="P1034" s="6"/>
+      <c r="Q1034" s="6"/>
+      <c r="R1034" s="6"/>
+      <c r="S1034" s="6"/>
+      <c r="T1034" s="6"/>
+      <c r="U1034" s="6"/>
+      <c r="V1034" s="6"/>
+      <c r="W1034" s="6"/>
+      <c r="X1034" s="6"/>
+      <c r="Y1034" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E465" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E466" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E467" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E466" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E467" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E468" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/data/IRiDiuM.xlsx
+++ b/data/IRiDiuM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CharlesD\Searches\Downloads\IRiDiuM-Glossary-main\IRiDiuM-Glossary-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CharlesD\Searches\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848B2EC-28F8-4B14-A09F-B498205218ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686E7C2-EBE1-40C2-A0FD-D5E19D2FF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="-13260" windowWidth="25740" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="-13425" windowWidth="21180" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSSARY UPDATE" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1829">
   <si>
     <t>Status</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Facts, measurements, recordings, records, or observations about the world collected by scientists and others, with a minimum of contextual interpretation. Data may be in any format or medium taking the form of writings, notes, numbers, symbols, text, images, films, video, sound recordings, pictorial reproductions, drawings, designs or other graphical representations, procedural manuals, forms, diagrams, work flow charts, equipment descriptions, data files, data processing algorithms, or statistical records.</t>
-  </si>
-  <si>
     <t>Research Data Alliance http://smw-rda.esc.rzg.mpg.de/index.php/Main_Page ; Landry et al. (1970); Carol Tenopir (2007); Michael Buckland (2007); See Zin et al. (2007) for an analysis of 130 definitions of data, information and knowledge provided by an expert panel of 45 leading scholars in information science, and the development of 5 models for defining data, information, and knowledge.</t>
   </si>
   <si>
@@ -1482,9 +1479,6 @@
     <t>Data management</t>
   </si>
   <si>
-    <t>25bb6a1f-4bc9-446b-95e1-4bd9497e4fb5</t>
-  </si>
-  <si>
     <t>1. Research data management (RDM) refers to the processes applied through the lifecycle of a research project to guide the collection, documentation, storage, sharing and preservation of research data. 2. The activities of data policies, data planning, data element standardization, information management control, data synchronization, data sharing, and database development, including practices and projects that acquire, control, protect, deliver and enhance the value of data and information.</t>
   </si>
   <si>
@@ -1504,9 +1498,6 @@
   </si>
   <si>
     <t>Data management plan</t>
-  </si>
-  <si>
-    <t>1b146b4b-2a0b-4e99-a970-c9f4c330259d</t>
   </si>
   <si>
     <t>Data management policy</t>
@@ -4036,12 +4027,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>1. A funded research activity with defined start and end dates. 2. A product or service that can solve a problem or address a need in the organization. The Project Charter describes the business case or project need; describes the proposed solution and/or the product description; identifies the clients of the project and why they will benefit from the project; ties the project to the organizations business and/or strategic plan; provides a list of any known constraints and major alternatives considered; includes the budget, resource requirements, and governance for completing the Project Initiation Plan.</t>
-  </si>
-  <si>
-    <t>2793cffd-6cde-40a3-98d7-a3a669c1f0f2</t>
-  </si>
-  <si>
     <t>Project lifecycle</t>
   </si>
   <si>
@@ -5591,9 +5576,6 @@
     <t>d4c1ce4b-ccc0-401c-b5a9-482f7bf2ae91</t>
   </si>
   <si>
-    <t xml:space="preserve">A Data Management Plan (DMP) provides information about a project and its data that are needed by managers, funders, researchers, scientists, data stewards, librarians, IT support, etc. </t>
-  </si>
-  <si>
     <t xml:space="preserve">See, machine-actionable Data Management Plan (maDMP). </t>
   </si>
   <si>
@@ -5610,6 +5592,18 @@
   </si>
   <si>
     <t>Reproducible data and code means that the final data and code are computationally reproducible within some tolerance interval or defined limits of precision and accuracy, i.e. a 3rd party will be able to verify the data lineage and processing, reanalyze the data and obtain consistent computational results using the same input raw data, computational steps, methods, computer software &amp; code, and conditions of analysis in order to determine if the same result emerges from the reprocessing and reanalysis. "Same result" can mean different things in different contexts: identical measures in a fully deterministic context, the same numeric results but differing in some irrelevant detail, statistically similar results in a non-deterministic context, or validation of a hypothesis. All data and code are made available for 3rd-party verification of reproducibility. Note that reproducibility is a different concept from replicability. In the latter case, the final published data are linked to sufficiently detailed methods and information for a 3rd-party to be able to verify the results based on the independent collection of new raw data using similar or different methods but leading to comparable results.</t>
+  </si>
+  <si>
+    <t>Facts, measurements, recordings, records, or observations about the world collected by scientists and others, with a minimum of contextual interpretation. Data may be in any format or medium taking the form of writings, notes, numbers, symbols, text, images, films, video, sound recordings, pictorial reproductions, drawings, designs or other graphical representations, procedural manuals, forms, diagrams, work flow charts, equipment descriptions, data files, data processing algorithms/code/scripts, or statistical records.</t>
+  </si>
+  <si>
+    <t>A set of activities required to produce certain defined outputs, or to accomplish specific goals or objectives within a defined schedule and resource budget. A project exists only for the duration of time required to complete its stated objectives.</t>
+  </si>
+  <si>
+    <t>Termium Plus</t>
+  </si>
+  <si>
+    <t>A Data Management Plan (DMP) provides information required by various stakeholders (e.g., funders, managers, data stewards, researchers, scientists, librarians, IT support, etc.) about a specific dataset or about a project and its data for the purpose of costing, project management, data management, and curation.</t>
   </si>
 </sst>
 </file>
@@ -6002,8 +5996,8 @@
   <dimension ref="A1:Y1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9461,16 +9455,16 @@
         <v>338</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>339</v>
+        <v>1825</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -9495,19 +9489,19 @@
         <v>8</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -9532,21 +9526,21 @@
         <v>8</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -9571,19 +9565,19 @@
         <v>8</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -9608,21 +9602,21 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -9647,17 +9641,17 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -9682,19 +9676,19 @@
         <v>8</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -9719,17 +9713,17 @@
         <v>8</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -9754,21 +9748,21 @@
         <v>8</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -9793,19 +9787,19 @@
         <v>8</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -9830,19 +9824,19 @@
         <v>8</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -9867,17 +9861,17 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -9902,17 +9896,17 @@
         <v>8</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -9937,17 +9931,17 @@
         <v>8</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -9972,17 +9966,17 @@
         <v>8</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -10007,23 +10001,23 @@
         <v>8</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -10048,17 +10042,17 @@
         <v>8</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -10083,17 +10077,17 @@
         <v>8</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -10118,19 +10112,19 @@
         <v>172</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -10155,21 +10149,21 @@
         <v>8</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -10194,19 +10188,19 @@
         <v>8</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
@@ -10231,17 +10225,17 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
@@ -10266,19 +10260,19 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -10303,19 +10297,19 @@
         <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -10340,17 +10334,17 @@
         <v>8</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -10375,21 +10369,21 @@
         <v>8</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
@@ -10414,19 +10408,19 @@
         <v>8</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -10451,19 +10445,19 @@
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
@@ -10488,19 +10482,19 @@
         <v>8</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -10525,19 +10519,19 @@
         <v>8</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -10562,19 +10556,19 @@
         <v>8</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -10599,23 +10593,23 @@
         <v>8</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -10640,17 +10634,17 @@
         <v>8</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -10675,17 +10669,17 @@
         <v>8</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -10710,17 +10704,17 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -10745,19 +10739,19 @@
         <v>8</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -10782,23 +10776,23 @@
         <v>8</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="G132" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -10823,20 +10817,18 @@
         <v>172</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-      <c r="H133" s="5" t="s">
-        <v>480</v>
-      </c>
+      <c r="H133" s="5"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -10860,19 +10852,19 @@
         <v>8</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -10897,20 +10889,18 @@
         <v>172</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-      <c r="H135" s="5" t="s">
-        <v>488</v>
-      </c>
+      <c r="H135" s="5"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -10934,17 +10924,17 @@
         <v>8</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -10969,19 +10959,19 @@
         <v>8</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -11006,21 +10996,21 @@
         <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -11045,19 +11035,19 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -11082,19 +11072,19 @@
         <v>8</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -11119,17 +11109,17 @@
         <v>8</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -11154,17 +11144,17 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -11189,19 +11179,19 @@
         <v>8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="6"/>
       <c r="G143" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -11226,17 +11216,17 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -11261,19 +11251,19 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -11298,17 +11288,17 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -11333,14 +11323,14 @@
         <v>22</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -11368,17 +11358,17 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -11403,17 +11393,17 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -11438,19 +11428,19 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -11475,19 +11465,19 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -11512,19 +11502,19 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -11549,19 +11539,19 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -11586,17 +11576,17 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -11621,17 +11611,17 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -11656,21 +11646,21 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -11695,17 +11685,17 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -11730,17 +11720,17 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
@@ -11765,19 +11755,19 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -11802,17 +11792,17 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
@@ -11837,17 +11827,17 @@
         <v>172</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
@@ -11872,21 +11862,21 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -11911,17 +11901,17 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -11946,21 +11936,21 @@
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
@@ -11985,17 +11975,17 @@
         <v>8</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -12020,21 +12010,21 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -12059,17 +12049,17 @@
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
@@ -12094,19 +12084,19 @@
         <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -12131,23 +12121,23 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="F169" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -12172,17 +12162,17 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -12207,17 +12197,17 @@
         <v>8</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -12242,19 +12232,19 @@
         <v>8</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
@@ -12279,17 +12269,17 @@
         <v>8</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
@@ -12314,17 +12304,17 @@
         <v>8</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
@@ -12349,17 +12339,17 @@
         <v>8</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
@@ -12384,17 +12374,17 @@
         <v>8</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
@@ -12419,19 +12409,19 @@
         <v>8</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -12456,17 +12446,17 @@
         <v>8</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
@@ -12491,17 +12481,17 @@
         <v>8</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
@@ -12526,19 +12516,19 @@
         <v>8</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
@@ -12563,21 +12553,21 @@
         <v>8</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
@@ -12602,19 +12592,19 @@
         <v>8</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
@@ -12639,17 +12629,17 @@
         <v>8</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
@@ -12674,17 +12664,17 @@
         <v>8</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
@@ -12709,19 +12699,19 @@
         <v>8</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
@@ -12746,21 +12736,21 @@
         <v>172</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C186" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D186" s="5" t="s">
-        <v>666</v>
-      </c>
       <c r="E186" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
@@ -12785,19 +12775,19 @@
         <v>8</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -12822,19 +12812,19 @@
         <v>8</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -12859,17 +12849,17 @@
         <v>8</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -12894,17 +12884,17 @@
         <v>8</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -12929,21 +12919,21 @@
         <v>8</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -12968,17 +12958,17 @@
         <v>8</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -13003,17 +12993,17 @@
         <v>8</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -13038,19 +13028,19 @@
         <v>8</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -13075,17 +13065,17 @@
         <v>8</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -13110,19 +13100,19 @@
         <v>8</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
@@ -13147,19 +13137,19 @@
         <v>172</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -13184,21 +13174,21 @@
         <v>8</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
@@ -13223,10 +13213,10 @@
         <v>8</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5" t="s">
@@ -13237,7 +13227,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -13262,19 +13252,19 @@
         <v>8</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -13299,19 +13289,19 @@
         <v>8</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
@@ -13336,21 +13326,21 @@
         <v>8</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
@@ -13375,19 +13365,19 @@
         <v>8</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G203" s="5"/>
       <c r="H203" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
@@ -13412,21 +13402,21 @@
         <v>8</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -13451,21 +13441,21 @@
         <v>172</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -13490,17 +13480,17 @@
         <v>8</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
@@ -13525,19 +13515,19 @@
         <v>8</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -13562,17 +13552,17 @@
         <v>8</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
@@ -13597,10 +13587,10 @@
         <v>8</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5" t="s">
@@ -13609,7 +13599,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
@@ -13634,19 +13624,19 @@
         <v>8</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G210" s="5"/>
       <c r="H210" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -13671,16 +13661,16 @@
         <v>22</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -13708,14 +13698,14 @@
         <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -13743,7 +13733,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="5"/>
@@ -13774,17 +13764,17 @@
         <v>8</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -13809,16 +13799,16 @@
         <v>22</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E215" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -13846,16 +13836,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -13880,17 +13870,17 @@
         <v>8</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
@@ -13915,10 +13905,10 @@
         <v>22</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5" t="s">
@@ -13950,17 +13940,17 @@
         <v>8</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
@@ -13985,17 +13975,17 @@
         <v>8</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
@@ -14020,17 +14010,17 @@
         <v>8</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -14055,17 +14045,17 @@
         <v>8</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
@@ -14090,10 +14080,10 @@
         <v>8</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5" t="s">
@@ -14102,7 +14092,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
@@ -14127,19 +14117,19 @@
         <v>8</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
@@ -14164,23 +14154,23 @@
         <v>8</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H225" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="H225" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
@@ -14205,21 +14195,21 @@
         <v>8</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
@@ -14244,19 +14234,19 @@
         <v>8</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
@@ -14281,19 +14271,19 @@
         <v>8</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
@@ -14318,17 +14308,17 @@
         <v>8</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
@@ -14353,17 +14343,17 @@
         <v>8</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
@@ -14388,17 +14378,17 @@
         <v>8</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
@@ -14423,16 +14413,16 @@
         <v>22</v>
       </c>
       <c r="B232" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E232" s="5" t="s">
         <v>821</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
@@ -14460,17 +14450,17 @@
         <v>8</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -14495,17 +14485,17 @@
         <v>8</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -14530,19 +14520,19 @@
         <v>8</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
@@ -14567,17 +14557,17 @@
         <v>8</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
@@ -14602,19 +14592,19 @@
         <v>8</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -14639,17 +14629,17 @@
         <v>8</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
@@ -14674,14 +14664,14 @@
         <v>22</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -14709,16 +14699,16 @@
         <v>22</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -14746,17 +14736,17 @@
         <v>8</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
@@ -14781,17 +14771,17 @@
         <v>8</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
@@ -14816,21 +14806,21 @@
         <v>8</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
@@ -14855,17 +14845,17 @@
         <v>22</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
@@ -14892,17 +14882,17 @@
         <v>8</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
@@ -14927,19 +14917,19 @@
         <v>8</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
@@ -14964,14 +14954,14 @@
         <v>22</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -14999,19 +14989,19 @@
         <v>8</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
@@ -15036,19 +15026,19 @@
         <v>8</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
@@ -15073,17 +15063,17 @@
         <v>8</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
@@ -15108,17 +15098,17 @@
         <v>8</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
@@ -15143,17 +15133,17 @@
         <v>8</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
@@ -15178,19 +15168,19 @@
         <v>8</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
@@ -15215,19 +15205,19 @@
         <v>8</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G254" s="5"/>
       <c r="H254" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
@@ -15252,19 +15242,19 @@
         <v>8</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
@@ -15289,17 +15279,17 @@
         <v>8</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
@@ -15324,17 +15314,17 @@
         <v>8</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
@@ -15359,17 +15349,17 @@
         <v>8</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
@@ -15394,17 +15384,17 @@
         <v>8</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
@@ -15429,10 +15419,10 @@
         <v>22</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5" t="s">
@@ -15464,19 +15454,19 @@
         <v>8</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
@@ -15501,19 +15491,19 @@
         <v>8</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
@@ -15538,17 +15528,17 @@
         <v>8</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
@@ -15573,21 +15563,21 @@
         <v>8</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G264" s="5"/>
       <c r="H264" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
@@ -15612,17 +15602,17 @@
         <v>8</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
@@ -15647,21 +15637,21 @@
         <v>8</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G266" s="5"/>
       <c r="H266" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
@@ -15686,17 +15676,17 @@
         <v>8</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
@@ -15721,19 +15711,19 @@
         <v>172</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
@@ -15758,21 +15748,21 @@
         <v>8</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F269" s="6"/>
       <c r="G269" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
@@ -15797,14 +15787,14 @@
         <v>22</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="6" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
@@ -15832,17 +15822,17 @@
         <v>8</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
@@ -15867,17 +15857,17 @@
         <v>8</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
@@ -15902,17 +15892,17 @@
         <v>8</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
@@ -15937,14 +15927,14 @@
         <v>22</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="13" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -15972,17 +15962,17 @@
         <v>8</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
@@ -16007,23 +15997,23 @@
         <v>8</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G276" s="5"/>
       <c r="H276" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
@@ -16048,17 +16038,17 @@
         <v>8</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
@@ -16083,17 +16073,17 @@
         <v>8</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
@@ -16118,19 +16108,19 @@
         <v>8</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G279" s="5"/>
       <c r="H279" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
@@ -16155,17 +16145,17 @@
         <v>8</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
@@ -16190,17 +16180,17 @@
         <v>8</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
@@ -16225,17 +16215,17 @@
         <v>8</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
@@ -16260,10 +16250,10 @@
         <v>8</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5" t="s">
@@ -16272,7 +16262,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
@@ -16297,19 +16287,19 @@
         <v>8</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
@@ -16334,17 +16324,17 @@
         <v>8</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
@@ -16369,10 +16359,10 @@
         <v>8</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5" t="s">
@@ -16381,7 +16371,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
@@ -16406,17 +16396,17 @@
         <v>8</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
@@ -16441,19 +16431,19 @@
         <v>8</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G288" s="5"/>
       <c r="H288" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
@@ -16478,19 +16468,19 @@
         <v>8</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
@@ -16518,7 +16508,7 @@
         <v>121</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -16527,7 +16517,7 @@
       </c>
       <c r="G290" s="5"/>
       <c r="H290" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
@@ -16552,17 +16542,17 @@
         <v>8</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
@@ -16587,21 +16577,21 @@
         <v>8</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G292" s="5"/>
       <c r="H292" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
@@ -16626,17 +16616,17 @@
         <v>8</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
@@ -16661,17 +16651,17 @@
         <v>8</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
@@ -16696,14 +16686,14 @@
         <v>22</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -16731,19 +16721,19 @@
         <v>8</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
@@ -16768,19 +16758,19 @@
         <v>8</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
@@ -16805,21 +16795,21 @@
         <v>8</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G298" s="5"/>
       <c r="H298" s="5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
@@ -16844,19 +16834,19 @@
         <v>8</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
@@ -16881,17 +16871,17 @@
         <v>8</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
@@ -16916,17 +16906,17 @@
         <v>8</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
@@ -16951,17 +16941,17 @@
         <v>8</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
       <c r="H302" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
@@ -16986,19 +16976,19 @@
         <v>8</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
@@ -17023,19 +17013,19 @@
         <v>8</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
       <c r="H304" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
@@ -17060,10 +17050,10 @@
         <v>8</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="5" t="s">
@@ -17072,7 +17062,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
       <c r="H305" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
@@ -17097,16 +17087,16 @@
         <v>22</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -17134,17 +17124,17 @@
         <v>8</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
       <c r="H307" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
@@ -17169,21 +17159,21 @@
         <v>8</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G308" s="5"/>
       <c r="H308" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
@@ -17208,17 +17198,17 @@
         <v>8</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
@@ -17243,17 +17233,17 @@
         <v>8</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
       <c r="H310" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
@@ -17278,21 +17268,21 @@
         <v>8</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
@@ -17317,21 +17307,21 @@
         <v>8</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G312" s="5"/>
       <c r="H312" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
@@ -17356,10 +17346,10 @@
         <v>8</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5" t="s">
@@ -17368,7 +17358,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
       <c r="H313" s="5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
@@ -17393,19 +17383,19 @@
         <v>8</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
       <c r="H314" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
@@ -17430,19 +17420,19 @@
         <v>8</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
       <c r="H315" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
@@ -17467,17 +17457,17 @@
         <v>8</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
       <c r="H316" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
@@ -17502,10 +17492,10 @@
         <v>8</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="5" t="s">
@@ -17514,7 +17504,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
       <c r="H317" s="5" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
@@ -17539,19 +17529,19 @@
         <v>8</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G318" s="5"/>
       <c r="H318" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
@@ -17576,19 +17566,19 @@
         <v>8</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G319" s="5"/>
       <c r="H319" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
@@ -17613,17 +17603,17 @@
         <v>8</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
       <c r="H320" s="5" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
@@ -17648,20 +17638,20 @@
         <v>22</v>
       </c>
       <c r="B321" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E321" s="5" t="s">
         <v>1123</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>1126</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H321" s="5"/>
       <c r="I321" s="6"/>
@@ -17687,17 +17677,17 @@
         <v>8</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
       <c r="H322" s="5" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
@@ -17722,19 +17712,19 @@
         <v>8</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
       <c r="H323" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
@@ -17759,18 +17749,18 @@
         <v>22</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
       <c r="G324" s="5" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H324" s="5"/>
       <c r="I324" s="6"/>
@@ -17796,19 +17786,19 @@
         <v>8</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
       <c r="H325" s="5" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
@@ -17833,10 +17823,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="5" t="s">
@@ -17845,7 +17835,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
@@ -17870,17 +17860,17 @@
         <v>8</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
@@ -17905,19 +17895,19 @@
         <v>8</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G328" s="5"/>
       <c r="H328" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
@@ -17942,21 +17932,21 @@
         <v>8</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G329" s="5"/>
       <c r="H329" s="5" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
@@ -17981,17 +17971,17 @@
         <v>8</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
@@ -18016,17 +18006,17 @@
         <v>8</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
@@ -18051,19 +18041,19 @@
         <v>8</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="G332" s="5"/>
       <c r="H332" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
@@ -18088,10 +18078,10 @@
         <v>8</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -18100,7 +18090,7 @@
       </c>
       <c r="G333" s="5"/>
       <c r="H333" s="5" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
@@ -18125,19 +18115,19 @@
         <v>8</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="G334" s="5"/>
       <c r="H334" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
@@ -18162,17 +18152,17 @@
         <v>8</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
@@ -18197,14 +18187,14 @@
         <v>22</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -18232,17 +18222,17 @@
         <v>8</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
@@ -18267,17 +18257,17 @@
         <v>8</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
@@ -18302,17 +18292,17 @@
         <v>8</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
@@ -18337,17 +18327,17 @@
         <v>8</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
@@ -18372,17 +18362,17 @@
         <v>8</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
@@ -18407,18 +18397,18 @@
         <v>22</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H342" s="5"/>
       <c r="I342" s="6"/>
@@ -18444,21 +18434,21 @@
         <v>8</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="G343" s="5"/>
       <c r="H343" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
@@ -18483,19 +18473,19 @@
         <v>8</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
@@ -18520,17 +18510,17 @@
         <v>8</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
@@ -18555,19 +18545,19 @@
         <v>8</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
@@ -18592,10 +18582,10 @@
         <v>8</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="5" t="s">
@@ -18604,7 +18594,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
@@ -18629,17 +18619,17 @@
         <v>8</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
@@ -18664,19 +18654,19 @@
         <v>8</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
       <c r="H349" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
@@ -18701,10 +18691,10 @@
         <v>22</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -18734,21 +18724,21 @@
         <v>8</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="G351" s="5"/>
       <c r="H351" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
@@ -18773,21 +18763,21 @@
         <v>8</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G352" s="5"/>
       <c r="H352" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
@@ -18812,17 +18802,17 @@
         <v>8</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
       <c r="H353" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
@@ -18850,22 +18840,22 @@
         <v>272</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E354" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F354" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="F354" s="5" t="s">
-        <v>1241</v>
-      </c>
       <c r="G354" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
@@ -18890,17 +18880,17 @@
         <v>8</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
@@ -18925,17 +18915,17 @@
         <v>8</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
@@ -18960,17 +18950,17 @@
         <v>8</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
@@ -18995,17 +18985,17 @@
         <v>8</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
@@ -19030,17 +19020,17 @@
         <v>8</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
@@ -19065,17 +19055,17 @@
         <v>8</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
@@ -19100,17 +19090,17 @@
         <v>8</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
@@ -19135,17 +19125,17 @@
         <v>8</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
@@ -19170,19 +19160,19 @@
         <v>8</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="G363" s="5"/>
       <c r="H363" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
@@ -19207,21 +19197,21 @@
         <v>8</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="G364" s="5"/>
       <c r="H364" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
@@ -19246,10 +19236,10 @@
         <v>8</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="5" t="s">
@@ -19258,7 +19248,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
@@ -19283,23 +19273,23 @@
         <v>8</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H366" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G366" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H366" s="5" t="s">
-        <v>1284</v>
       </c>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
@@ -19324,21 +19314,21 @@
         <v>8</v>
       </c>
       <c r="B367" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E367" s="5" t="s">
         <v>1285</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
       <c r="H367" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
@@ -19363,19 +19353,19 @@
         <v>8</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="G368" s="5"/>
       <c r="H368" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
@@ -19400,19 +19390,19 @@
         <v>8</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G369" s="5"/>
       <c r="H369" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
@@ -19437,19 +19427,19 @@
         <v>8</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
       <c r="H370" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
@@ -19474,23 +19464,23 @@
         <v>8</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="G371" s="5"/>
       <c r="H371" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
@@ -19518,16 +19508,16 @@
         <v>137</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G372" s="5"/>
       <c r="H372" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
@@ -19552,19 +19542,19 @@
         <v>8</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
@@ -19589,19 +19579,19 @@
         <v>8</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
       <c r="H374" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
@@ -19626,23 +19616,23 @@
         <v>8</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>1317</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G375" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H375" s="5" t="s">
-        <v>1320</v>
       </c>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
@@ -19663,24 +19653,22 @@
       <c r="Y375" s="6"/>
     </row>
     <row r="376" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="4" t="s">
-        <v>8</v>
+      <c r="A376" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1322</v>
+        <v>1826</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="5" t="s">
-        <v>1039</v>
+        <v>1827</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
-      <c r="H376" s="5" t="s">
-        <v>1323</v>
-      </c>
+      <c r="H376" s="5"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
@@ -19704,19 +19692,19 @@
         <v>8</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
@@ -19741,19 +19729,19 @@
         <v>8</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
@@ -19778,21 +19766,21 @@
         <v>8</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="G379" s="5"/>
       <c r="H379" s="5" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
@@ -19817,17 +19805,17 @@
         <v>8</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
@@ -19852,19 +19840,19 @@
         <v>8</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
@@ -19889,19 +19877,19 @@
         <v>8</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="5" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
@@ -19926,17 +19914,17 @@
         <v>8</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
@@ -19964,11 +19952,11 @@
         <v>222</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="5" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="F384" s="5"/>
       <c r="G384" s="5" t="s">
@@ -19998,17 +19986,17 @@
         <v>8</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
@@ -20033,17 +20021,17 @@
         <v>8</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
@@ -20068,17 +20056,17 @@
         <v>8</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
@@ -20103,19 +20091,19 @@
         <v>8</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="G388" s="5"/>
       <c r="H388" s="5" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
@@ -20140,19 +20128,19 @@
         <v>8</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="G389" s="5"/>
       <c r="H389" s="5" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
@@ -20177,21 +20165,21 @@
         <v>8</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
@@ -20216,17 +20204,17 @@
         <v>8</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
@@ -20251,17 +20239,17 @@
         <v>8</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
@@ -20286,23 +20274,23 @@
         <v>8</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G393" s="5"/>
       <c r="H393" s="5" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
@@ -20327,17 +20315,17 @@
         <v>172</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
@@ -20362,17 +20350,17 @@
         <v>8</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
@@ -20397,17 +20385,17 @@
         <v>8</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
@@ -20432,17 +20420,17 @@
         <v>8</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
@@ -20467,17 +20455,17 @@
         <v>8</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
@@ -20502,17 +20490,17 @@
         <v>8</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
@@ -20537,10 +20525,10 @@
         <v>8</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="5" t="s">
@@ -20549,7 +20537,7 @@
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
@@ -20574,10 +20562,10 @@
         <v>8</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="5" t="s">
@@ -20586,7 +20574,7 @@
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
@@ -20611,17 +20599,17 @@
         <v>8</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
@@ -20646,10 +20634,10 @@
         <v>8</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="5" t="s">
@@ -20658,7 +20646,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
@@ -20683,17 +20671,17 @@
         <v>8</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
       <c r="H404" s="11" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
@@ -20718,19 +20706,19 @@
         <v>8</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="5" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
@@ -20755,19 +20743,19 @@
         <v>8</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="G406" s="5"/>
       <c r="H406" s="5" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
@@ -20792,17 +20780,17 @@
         <v>8</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
@@ -20827,17 +20815,17 @@
         <v>8</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
       <c r="H408" s="11" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
@@ -20862,17 +20850,17 @@
         <v>8</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
@@ -20897,17 +20885,17 @@
         <v>8</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
       <c r="H410" s="11" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
@@ -20932,19 +20920,19 @@
         <v>8</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G411" s="5"/>
       <c r="H411" s="5" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
@@ -20969,10 +20957,10 @@
         <v>22</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -21002,17 +20990,17 @@
         <v>8</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
@@ -21037,17 +21025,17 @@
         <v>8</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
@@ -21072,19 +21060,19 @@
         <v>8</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="5" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
@@ -21109,17 +21097,17 @@
         <v>8</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
@@ -21144,17 +21132,17 @@
         <v>8</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
@@ -21179,17 +21167,17 @@
         <v>8</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
@@ -21214,21 +21202,21 @@
         <v>8</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G419" s="5"/>
       <c r="H419" s="5" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
@@ -21253,19 +21241,19 @@
         <v>8</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="5" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
@@ -21290,19 +21278,19 @@
         <v>172</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="5" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
@@ -21327,19 +21315,19 @@
         <v>8</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G422" s="5"/>
       <c r="H422" s="5" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
@@ -21364,19 +21352,19 @@
         <v>8</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="G423" s="5"/>
       <c r="H423" s="5" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
@@ -21401,19 +21389,19 @@
         <v>8</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="G424" s="5"/>
       <c r="H424" s="5" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
@@ -21438,19 +21426,19 @@
         <v>8</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="G425" s="5"/>
       <c r="H425" s="5" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
@@ -21475,17 +21463,17 @@
         <v>8</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
@@ -21510,19 +21498,19 @@
         <v>8</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="5" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
@@ -21547,21 +21535,21 @@
         <v>8</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="G428" s="5" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="H428" s="5" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
@@ -21586,21 +21574,21 @@
         <v>8</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="G429" s="5"/>
       <c r="H429" s="5" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
@@ -21625,10 +21613,10 @@
         <v>8</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="5" t="s">
@@ -21637,7 +21625,7 @@
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
@@ -21662,17 +21650,17 @@
         <v>8</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
@@ -21697,21 +21685,21 @@
         <v>8</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="D432" s="5"/>
       <c r="E432" s="5" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G432" s="5"/>
       <c r="H432" s="5" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
@@ -21736,17 +21724,17 @@
         <v>8</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
@@ -21771,19 +21759,19 @@
         <v>8</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="D434" s="5"/>
       <c r="E434" s="5" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
@@ -21808,17 +21796,17 @@
         <v>8</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
@@ -21843,21 +21831,21 @@
         <v>8</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
@@ -21882,17 +21870,17 @@
         <v>8</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
@@ -21917,17 +21905,17 @@
         <v>8</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
@@ -21952,21 +21940,21 @@
         <v>8</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
@@ -21991,23 +21979,23 @@
         <v>8</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
@@ -22032,21 +22020,21 @@
         <v>8</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G441" s="5"/>
       <c r="H441" s="5" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
@@ -22071,23 +22059,23 @@
         <v>8</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H442" s="5" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
@@ -22112,17 +22100,17 @@
         <v>8</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
@@ -22147,17 +22135,17 @@
         <v>8</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
@@ -22182,19 +22170,19 @@
         <v>8</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="D445" s="5"/>
       <c r="E445" s="5" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
@@ -22219,17 +22207,17 @@
         <v>8</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
@@ -22254,17 +22242,17 @@
         <v>8</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
@@ -22289,23 +22277,23 @@
         <v>172</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="E448" s="5" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="G448" s="5"/>
       <c r="H448" s="5" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
@@ -22330,17 +22318,17 @@
         <v>172</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="6"/>
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
@@ -22365,17 +22353,17 @@
         <v>8</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="6"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
@@ -22400,17 +22388,17 @@
         <v>8</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
@@ -22435,19 +22423,19 @@
         <v>172</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D452" s="5"/>
       <c r="E452" s="6" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
@@ -22472,17 +22460,17 @@
         <v>8</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
@@ -22507,21 +22495,21 @@
         <v>8</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="5" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
@@ -22546,21 +22534,21 @@
         <v>8</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="G455" s="5"/>
       <c r="H455" s="5" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
@@ -22585,21 +22573,21 @@
         <v>8</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="5" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="G456" s="5"/>
       <c r="H456" s="5" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
@@ -22624,19 +22612,19 @@
         <v>8</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="G457" s="5"/>
       <c r="H457" s="11" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
@@ -22661,17 +22649,17 @@
         <v>8</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
@@ -22696,17 +22684,17 @@
         <v>8</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
@@ -22731,21 +22719,21 @@
         <v>8</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="5" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
@@ -22770,19 +22758,19 @@
         <v>8</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="5" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
@@ -22807,19 +22795,19 @@
         <v>8</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="5" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
@@ -22844,17 +22832,17 @@
         <v>8</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
@@ -22879,19 +22867,19 @@
         <v>22</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="G464" s="5"/>
       <c r="H464" s="5"/>
@@ -22918,17 +22906,17 @@
         <v>8</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
@@ -22953,14 +22941,14 @@
         <v>22</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="10" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
@@ -22988,19 +22976,19 @@
         <v>172</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="10" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
@@ -23025,18 +23013,18 @@
         <v>22</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="10" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="5" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="H468" s="5"/>
       <c r="I468" s="6"/>
@@ -23062,10 +23050,10 @@
         <v>8</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="5" t="s">
@@ -23074,7 +23062,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
@@ -23099,17 +23087,17 @@
         <v>8</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
@@ -23134,17 +23122,17 @@
         <v>8</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
@@ -23169,10 +23157,10 @@
         <v>8</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="5" t="s">
@@ -23181,7 +23169,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
@@ -23206,17 +23194,17 @@
         <v>8</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
@@ -23241,17 +23229,17 @@
         <v>8</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
@@ -23276,21 +23264,21 @@
         <v>8</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="5" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
@@ -23315,19 +23303,19 @@
         <v>8</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
@@ -23352,10 +23340,10 @@
         <v>8</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="5" t="s">
@@ -23364,7 +23352,7 @@
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
@@ -23389,19 +23377,19 @@
         <v>8</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
@@ -23426,21 +23414,21 @@
         <v>8</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="G479" s="5"/>
       <c r="H479" s="5" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
@@ -23465,17 +23453,17 @@
         <v>8</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
@@ -23500,19 +23488,19 @@
         <v>8</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="5" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
@@ -23537,17 +23525,17 @@
         <v>8</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
@@ -23572,17 +23560,17 @@
         <v>8</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
@@ -23607,21 +23595,21 @@
         <v>8</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="5" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="G484" s="5"/>
       <c r="H484" s="5" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
@@ -23646,19 +23634,19 @@
         <v>8</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="5" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
@@ -23683,17 +23671,17 @@
         <v>8</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
@@ -23718,19 +23706,19 @@
         <v>8</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="5" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
@@ -23755,16 +23743,16 @@
         <v>22</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
@@ -23792,17 +23780,17 @@
         <v>8</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
@@ -23827,17 +23815,17 @@
         <v>8</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
@@ -23862,19 +23850,19 @@
         <v>8</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="G491" s="5"/>
       <c r="H491" s="5" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
@@ -23899,17 +23887,17 @@
         <v>8</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
@@ -23934,10 +23922,10 @@
         <v>8</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="5" t="s">
@@ -23946,7 +23934,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
@@ -23971,10 +23959,10 @@
         <v>22</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="5" t="s">
@@ -24006,19 +23994,19 @@
         <v>8</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
@@ -24043,17 +24031,17 @@
         <v>8</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
@@ -24078,17 +24066,17 @@
         <v>8</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
@@ -24113,19 +24101,19 @@
         <v>8</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="G498" s="5"/>
       <c r="H498" s="5" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
@@ -24150,19 +24138,19 @@
         <v>8</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
@@ -24187,17 +24175,17 @@
         <v>8</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
@@ -24222,19 +24210,19 @@
         <v>8</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="G501" s="5"/>
       <c r="H501" s="5" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
@@ -24259,17 +24247,17 @@
         <v>8</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
       <c r="H502" s="5" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
@@ -24294,14 +24282,14 @@
         <v>22</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
@@ -24329,21 +24317,21 @@
         <v>8</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="G504" s="5"/>
       <c r="H504" s="5" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
@@ -24368,14 +24356,14 @@
         <v>22</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -24403,17 +24391,17 @@
         <v>8</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
@@ -24438,21 +24426,21 @@
         <v>8</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="G507" s="5"/>
       <c r="H507" s="5" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
@@ -24477,19 +24465,19 @@
         <v>8</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="G508" s="5"/>
       <c r="H508" s="5" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
@@ -24514,19 +24502,19 @@
         <v>8</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="G509" s="5"/>
       <c r="H509" s="5" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
@@ -24551,19 +24539,19 @@
         <v>8</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="G510" s="5"/>
       <c r="H510" s="5" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
@@ -24588,19 +24576,19 @@
         <v>8</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="G511" s="5"/>
       <c r="H511" s="5" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -24625,21 +24613,21 @@
         <v>8</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D512" s="5"/>
       <c r="E512" s="5" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="5" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
@@ -24664,17 +24652,17 @@
         <v>8</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
@@ -24699,17 +24687,17 @@
         <v>8</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
@@ -24734,17 +24722,17 @@
         <v>8</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
@@ -24769,19 +24757,19 @@
         <v>8</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="G516" s="5"/>
       <c r="H516" s="5" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
@@ -24806,21 +24794,21 @@
         <v>8</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="D517" s="5"/>
       <c r="E517" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="G517" s="5"/>
       <c r="H517" s="5" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
@@ -24845,17 +24833,17 @@
         <v>8</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
@@ -24880,23 +24868,23 @@
         <v>8</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="D519" s="5"/>
       <c r="E519" s="5" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="F519" s="5" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="H519" s="5" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
@@ -24921,17 +24909,17 @@
         <v>8</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
@@ -24956,10 +24944,10 @@
         <v>8</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="D521" s="5"/>
       <c r="E521" s="5" t="s">
@@ -24968,7 +24956,7 @@
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
@@ -24993,17 +24981,17 @@
         <v>8</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>

--- a/data/IRiDiuM.xlsx
+++ b/data/IRiDiuM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CharlesD\Searches\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686E7C2-EBE1-40C2-A0FD-D5E19D2FF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC4D63-F186-4F1A-AA32-42A2A2414BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="-13425" windowWidth="21180" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GLOSSARY UPDATE" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1830">
   <si>
     <t>Status</t>
   </si>
@@ -4805,9 +4805,6 @@
     <t>Science</t>
   </si>
   <si>
-    <t>1. The intellectual and practical activity encompassing the systematic study of the structure and behavior of the physical and natural world through observation and experiment. 2. A systematically organized body of knowledge on a particular subject.</t>
-  </si>
-  <si>
     <t>Oxford dictionnary</t>
   </si>
   <si>
@@ -5604,6 +5601,12 @@
   </si>
   <si>
     <t>A Data Management Plan (DMP) provides information required by various stakeholders (e.g., funders, managers, data stewards, researchers, scientists, librarians, IT support, etc.) about a specific dataset or about a project and its data for the purpose of costing, project management, data management, and curation.</t>
+  </si>
+  <si>
+    <t>1. The intellectual and practical activity encompassing the systematic study of the structure and behavior of the physical and natural world through observation and experiment. 2. A systematically organized body of knowledge on a particular subject. 3. Science is defined broadly to include the natural, health, and social sciences, mathematics, engineering, and technology.</t>
+  </si>
+  <si>
+    <t>Oxford dictionnary; Science Advice for Emergency Management in Canada.</t>
   </si>
 </sst>
 </file>
@@ -5721,7 +5724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5777,6 +5780,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5996,11 +6002,11 @@
   <dimension ref="A1:Y1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I446" sqref="I446"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
@@ -9455,7 +9461,7 @@
         <v>338</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -10892,10 +10898,10 @@
         <v>485</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="5"/>
@@ -17087,16 +17093,16 @@
         <v>22</v>
       </c>
       <c r="B306" s="19" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C306" s="17" t="s">
         <v>1820</v>
       </c>
-      <c r="C306" s="17" t="s">
+      <c r="D306" s="17" t="s">
         <v>1821</v>
       </c>
-      <c r="D306" s="17" t="s">
+      <c r="E306" s="17" t="s">
         <v>1822</v>
-      </c>
-      <c r="E306" s="17" t="s">
-        <v>1823</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -19660,11 +19666,11 @@
         <v>1318</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="5" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
@@ -21281,7 +21287,7 @@
         <v>1461</v>
       </c>
       <c r="C421" s="17" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="5" t="s">
@@ -22498,18 +22504,18 @@
         <v>1577</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1578</v>
+        <v>1828</v>
       </c>
       <c r="D454" s="5"/>
-      <c r="E454" s="5" t="s">
+      <c r="E454" s="20" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F454" s="5" t="s">
         <v>1579</v>
-      </c>
-      <c r="F454" s="5" t="s">
-        <v>1580</v>
       </c>
       <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
@@ -22534,21 +22540,21 @@
         <v>8</v>
       </c>
       <c r="B455" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C455" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>1583</v>
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G455" s="5"/>
       <c r="H455" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
@@ -22573,21 +22579,21 @@
         <v>8</v>
       </c>
       <c r="B456" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C456" s="5" t="s">
         <v>1586</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>1587</v>
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F456" s="5" t="s">
         <v>1588</v>
-      </c>
-      <c r="F456" s="5" t="s">
-        <v>1589</v>
       </c>
       <c r="G456" s="5"/>
       <c r="H456" s="5" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
@@ -22612,19 +22618,19 @@
         <v>8</v>
       </c>
       <c r="B457" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C457" s="5" t="s">
         <v>1591</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>1592</v>
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G457" s="5"/>
       <c r="H457" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
@@ -22649,17 +22655,17 @@
         <v>8</v>
       </c>
       <c r="B458" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C458" s="5" t="s">
         <v>1594</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>1595</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
@@ -22684,17 +22690,17 @@
         <v>8</v>
       </c>
       <c r="B459" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C459" s="5" t="s">
         <v>1597</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>1598</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
@@ -22719,21 +22725,21 @@
         <v>8</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="5" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F460" s="5" t="s">
         <v>1577</v>
       </c>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
@@ -22758,19 +22764,19 @@
         <v>8</v>
       </c>
       <c r="B461" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>1602</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>1603</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="5" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
@@ -22795,19 +22801,19 @@
         <v>8</v>
       </c>
       <c r="B462" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C462" s="5" t="s">
         <v>1606</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>1607</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
@@ -22832,17 +22838,17 @@
         <v>8</v>
       </c>
       <c r="B463" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C463" s="5" t="s">
         <v>1610</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>1611</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
@@ -22867,19 +22873,19 @@
         <v>22</v>
       </c>
       <c r="B464" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C464" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="C464" s="5" t="s">
+      <c r="D464" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="D464" s="5" t="s">
+      <c r="E464" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="E464" s="5" t="s">
+      <c r="F464" s="5" t="s">
         <v>1616</v>
-      </c>
-      <c r="F464" s="5" t="s">
-        <v>1617</v>
       </c>
       <c r="G464" s="5"/>
       <c r="H464" s="5"/>
@@ -22906,17 +22912,17 @@
         <v>8</v>
       </c>
       <c r="B465" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C465" s="5" t="s">
         <v>1618</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>1619</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
@@ -22941,14 +22947,14 @@
         <v>22</v>
       </c>
       <c r="B466" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C466" s="5" t="s">
         <v>1621</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>1622</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
@@ -22976,19 +22982,19 @@
         <v>172</v>
       </c>
       <c r="B467" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C467" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>1626</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
@@ -23013,18 +23019,18 @@
         <v>22</v>
       </c>
       <c r="B468" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C468" s="5" t="s">
         <v>1628</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>1629</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H468" s="5"/>
       <c r="I468" s="6"/>
@@ -23050,10 +23056,10 @@
         <v>8</v>
       </c>
       <c r="B469" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C469" s="5" t="s">
         <v>1632</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>1633</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="5" t="s">
@@ -23062,7 +23068,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
@@ -23087,17 +23093,17 @@
         <v>8</v>
       </c>
       <c r="B470" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C470" s="5" t="s">
         <v>1635</v>
-      </c>
-      <c r="C470" s="5" t="s">
-        <v>1636</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
@@ -23122,17 +23128,17 @@
         <v>8</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C471" s="5" t="s">
         <v>1638</v>
-      </c>
-      <c r="C471" s="5" t="s">
-        <v>1639</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
@@ -23157,10 +23163,10 @@
         <v>8</v>
       </c>
       <c r="B472" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C472" s="5" t="s">
         <v>1641</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>1642</v>
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="5" t="s">
@@ -23169,7 +23175,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
@@ -23194,17 +23200,17 @@
         <v>8</v>
       </c>
       <c r="B473" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C473" s="5" t="s">
         <v>1644</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>1645</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
@@ -23229,17 +23235,17 @@
         <v>8</v>
       </c>
       <c r="B474" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C474" s="5" t="s">
         <v>1647</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>1648</v>
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
@@ -23264,21 +23270,21 @@
         <v>8</v>
       </c>
       <c r="B475" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C475" s="5" t="s">
         <v>1650</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>1651</v>
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F475" s="5" t="s">
         <v>1652</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>1653</v>
       </c>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
@@ -23303,19 +23309,19 @@
         <v>8</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C476" s="5" t="s">
         <v>1655</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>1656</v>
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
@@ -23340,10 +23346,10 @@
         <v>8</v>
       </c>
       <c r="B477" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C477" s="5" t="s">
         <v>1659</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>1660</v>
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="5" t="s">
@@ -23352,7 +23358,7 @@
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
@@ -23377,10 +23383,10 @@
         <v>8</v>
       </c>
       <c r="B478" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C478" s="5" t="s">
         <v>1662</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>1663</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="5" t="s">
@@ -23389,7 +23395,7 @@
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
@@ -23414,21 +23420,21 @@
         <v>8</v>
       </c>
       <c r="B479" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C479" s="5" t="s">
         <v>1665</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>1666</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="5" t="s">
         <v>1209</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G479" s="5"/>
       <c r="H479" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
@@ -23453,17 +23459,17 @@
         <v>8</v>
       </c>
       <c r="B480" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C480" s="5" t="s">
         <v>1669</v>
-      </c>
-      <c r="C480" s="5" t="s">
-        <v>1670</v>
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
@@ -23488,19 +23494,19 @@
         <v>8</v>
       </c>
       <c r="B481" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C481" s="5" t="s">
         <v>1672</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>1673</v>
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
@@ -23525,17 +23531,17 @@
         <v>8</v>
       </c>
       <c r="B482" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C482" s="5" t="s">
         <v>1676</v>
-      </c>
-      <c r="C482" s="5" t="s">
-        <v>1677</v>
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
@@ -23560,17 +23566,17 @@
         <v>8</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C483" s="5" t="s">
         <v>1679</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>1680</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
@@ -23595,21 +23601,21 @@
         <v>8</v>
       </c>
       <c r="B484" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C484" s="5" t="s">
         <v>1682</v>
-      </c>
-      <c r="C484" s="5" t="s">
-        <v>1683</v>
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F484" s="5" t="s">
         <v>1684</v>
-      </c>
-      <c r="F484" s="5" t="s">
-        <v>1685</v>
       </c>
       <c r="G484" s="5"/>
       <c r="H484" s="5" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
@@ -23634,19 +23640,19 @@
         <v>8</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C485" s="5" t="s">
         <v>1687</v>
-      </c>
-      <c r="C485" s="5" t="s">
-        <v>1688</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="5" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
@@ -23671,17 +23677,17 @@
         <v>8</v>
       </c>
       <c r="B486" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C486" s="5" t="s">
         <v>1691</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>1692</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
@@ -23706,19 +23712,19 @@
         <v>8</v>
       </c>
       <c r="B487" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C487" s="5" t="s">
         <v>1694</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>1695</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
@@ -23743,16 +23749,16 @@
         <v>22</v>
       </c>
       <c r="B488" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C488" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="C488" s="5" t="s">
+      <c r="D488" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="D488" s="5" t="s">
+      <c r="E488" s="5" t="s">
         <v>1700</v>
-      </c>
-      <c r="E488" s="5" t="s">
-        <v>1701</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
@@ -23780,17 +23786,17 @@
         <v>8</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C489" s="5" t="s">
         <v>1702</v>
-      </c>
-      <c r="C489" s="5" t="s">
-        <v>1703</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
@@ -23815,17 +23821,17 @@
         <v>8</v>
       </c>
       <c r="B490" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C490" s="5" t="s">
         <v>1705</v>
-      </c>
-      <c r="C490" s="5" t="s">
-        <v>1706</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
@@ -23850,19 +23856,19 @@
         <v>8</v>
       </c>
       <c r="B491" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C491" s="5" t="s">
         <v>1708</v>
-      </c>
-      <c r="C491" s="5" t="s">
-        <v>1709</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G491" s="5"/>
       <c r="H491" s="5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
@@ -23887,17 +23893,17 @@
         <v>8</v>
       </c>
       <c r="B492" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C492" s="5" t="s">
         <v>1712</v>
-      </c>
-      <c r="C492" s="5" t="s">
-        <v>1713</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
@@ -23922,10 +23928,10 @@
         <v>8</v>
       </c>
       <c r="B493" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C493" s="5" t="s">
         <v>1715</v>
-      </c>
-      <c r="C493" s="5" t="s">
-        <v>1716</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="5" t="s">
@@ -23934,7 +23940,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
@@ -23959,10 +23965,10 @@
         <v>22</v>
       </c>
       <c r="B494" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C494" s="5" t="s">
         <v>1718</v>
-      </c>
-      <c r="C494" s="5" t="s">
-        <v>1719</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="5" t="s">
@@ -23994,10 +24000,10 @@
         <v>8</v>
       </c>
       <c r="B495" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C495" s="5" t="s">
         <v>1720</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>1721</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5" t="s">
@@ -24006,7 +24012,7 @@
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
@@ -24031,17 +24037,17 @@
         <v>8</v>
       </c>
       <c r="B496" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C496" s="5" t="s">
         <v>1723</v>
-      </c>
-      <c r="C496" s="5" t="s">
-        <v>1724</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
@@ -24066,17 +24072,17 @@
         <v>8</v>
       </c>
       <c r="B497" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C497" s="5" t="s">
         <v>1726</v>
-      </c>
-      <c r="C497" s="5" t="s">
-        <v>1727</v>
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
@@ -24101,19 +24107,19 @@
         <v>8</v>
       </c>
       <c r="B498" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C498" s="5" t="s">
         <v>1729</v>
-      </c>
-      <c r="C498" s="5" t="s">
-        <v>1730</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G498" s="5"/>
       <c r="H498" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
@@ -24138,10 +24144,10 @@
         <v>8</v>
       </c>
       <c r="B499" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C499" s="5" t="s">
         <v>1733</v>
-      </c>
-      <c r="C499" s="5" t="s">
-        <v>1734</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="5" t="s">
@@ -24150,7 +24156,7 @@
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
@@ -24175,17 +24181,17 @@
         <v>8</v>
       </c>
       <c r="B500" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C500" s="5" t="s">
         <v>1736</v>
-      </c>
-      <c r="C500" s="5" t="s">
-        <v>1737</v>
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
@@ -24210,19 +24216,19 @@
         <v>8</v>
       </c>
       <c r="B501" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C501" s="5" t="s">
         <v>1739</v>
-      </c>
-      <c r="C501" s="5" t="s">
-        <v>1740</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G501" s="5"/>
       <c r="H501" s="5" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
@@ -24247,17 +24253,17 @@
         <v>8</v>
       </c>
       <c r="B502" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C502" s="5" t="s">
         <v>1743</v>
-      </c>
-      <c r="C502" s="5" t="s">
-        <v>1744</v>
       </c>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
       <c r="H502" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
@@ -24282,10 +24288,10 @@
         <v>22</v>
       </c>
       <c r="B503" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C503" s="5" t="s">
         <v>1746</v>
-      </c>
-      <c r="C503" s="5" t="s">
-        <v>1747</v>
       </c>
       <c r="D503" s="5"/>
       <c r="E503" s="5" t="s">
@@ -24317,21 +24323,21 @@
         <v>8</v>
       </c>
       <c r="B504" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C504" s="5" t="s">
         <v>1748</v>
-      </c>
-      <c r="C504" s="5" t="s">
-        <v>1749</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F504" s="5" t="s">
         <v>1750</v>
-      </c>
-      <c r="F504" s="5" t="s">
-        <v>1751</v>
       </c>
       <c r="G504" s="5"/>
       <c r="H504" s="5" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
@@ -24356,14 +24362,14 @@
         <v>22</v>
       </c>
       <c r="B505" s="8" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C505" s="5" t="s">
         <v>1753</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>1754</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -24391,17 +24397,17 @@
         <v>8</v>
       </c>
       <c r="B506" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C506" s="5" t="s">
         <v>1756</v>
-      </c>
-      <c r="C506" s="5" t="s">
-        <v>1757</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
@@ -24426,21 +24432,21 @@
         <v>8</v>
       </c>
       <c r="B507" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C507" s="5" t="s">
         <v>1759</v>
-      </c>
-      <c r="C507" s="5" t="s">
-        <v>1760</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G507" s="5"/>
       <c r="H507" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
@@ -24465,19 +24471,19 @@
         <v>8</v>
       </c>
       <c r="B508" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C508" s="5" t="s">
         <v>1763</v>
-      </c>
-      <c r="C508" s="5" t="s">
-        <v>1764</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G508" s="5"/>
       <c r="H508" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
@@ -24502,19 +24508,19 @@
         <v>8</v>
       </c>
       <c r="B509" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C509" s="5" t="s">
         <v>1767</v>
-      </c>
-      <c r="C509" s="5" t="s">
-        <v>1768</v>
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G509" s="5"/>
       <c r="H509" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
@@ -24539,19 +24545,19 @@
         <v>8</v>
       </c>
       <c r="B510" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C510" s="5" t="s">
         <v>1771</v>
-      </c>
-      <c r="C510" s="5" t="s">
-        <v>1772</v>
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G510" s="5"/>
       <c r="H510" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
@@ -24576,19 +24582,19 @@
         <v>8</v>
       </c>
       <c r="B511" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C511" s="5" t="s">
         <v>1775</v>
-      </c>
-      <c r="C511" s="5" t="s">
-        <v>1776</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G511" s="5"/>
       <c r="H511" s="5" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -24613,21 +24619,21 @@
         <v>8</v>
       </c>
       <c r="B512" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C512" s="5" t="s">
         <v>1779</v>
-      </c>
-      <c r="C512" s="5" t="s">
-        <v>1780</v>
       </c>
       <c r="D512" s="5"/>
       <c r="E512" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F512" s="5" t="s">
         <v>1781</v>
-      </c>
-      <c r="F512" s="5" t="s">
-        <v>1782</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
@@ -24652,17 +24658,17 @@
         <v>8</v>
       </c>
       <c r="B513" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C513" s="5" t="s">
         <v>1784</v>
-      </c>
-      <c r="C513" s="5" t="s">
-        <v>1785</v>
       </c>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
@@ -24687,17 +24693,17 @@
         <v>8</v>
       </c>
       <c r="B514" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C514" s="5" t="s">
         <v>1787</v>
-      </c>
-      <c r="C514" s="5" t="s">
-        <v>1788</v>
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
@@ -24722,17 +24728,17 @@
         <v>8</v>
       </c>
       <c r="B515" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C515" s="5" t="s">
         <v>1790</v>
-      </c>
-      <c r="C515" s="5" t="s">
-        <v>1791</v>
       </c>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
@@ -24757,19 +24763,19 @@
         <v>8</v>
       </c>
       <c r="B516" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C516" s="5" t="s">
         <v>1793</v>
-      </c>
-      <c r="C516" s="5" t="s">
-        <v>1794</v>
       </c>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G516" s="5"/>
       <c r="H516" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
@@ -24794,21 +24800,21 @@
         <v>8</v>
       </c>
       <c r="B517" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C517" s="5" t="s">
         <v>1797</v>
-      </c>
-      <c r="C517" s="5" t="s">
-        <v>1798</v>
       </c>
       <c r="D517" s="5"/>
       <c r="E517" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G517" s="5"/>
       <c r="H517" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
@@ -24833,17 +24839,17 @@
         <v>8</v>
       </c>
       <c r="B518" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C518" s="5" t="s">
         <v>1801</v>
-      </c>
-      <c r="C518" s="5" t="s">
-        <v>1802</v>
       </c>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
@@ -24868,23 +24874,23 @@
         <v>8</v>
       </c>
       <c r="B519" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C519" s="5" t="s">
         <v>1804</v>
-      </c>
-      <c r="C519" s="5" t="s">
-        <v>1805</v>
       </c>
       <c r="D519" s="5"/>
       <c r="E519" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F519" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="F519" s="5" t="s">
+      <c r="G519" s="5" t="s">
         <v>1807</v>
       </c>
-      <c r="G519" s="5" t="s">
+      <c r="H519" s="5" t="s">
         <v>1808</v>
-      </c>
-      <c r="H519" s="5" t="s">
-        <v>1809</v>
       </c>
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
@@ -24909,17 +24915,17 @@
         <v>8</v>
       </c>
       <c r="B520" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C520" s="5" t="s">
         <v>1810</v>
-      </c>
-      <c r="C520" s="5" t="s">
-        <v>1811</v>
       </c>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
@@ -24944,10 +24950,10 @@
         <v>8</v>
       </c>
       <c r="B521" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C521" s="5" t="s">
         <v>1813</v>
-      </c>
-      <c r="C521" s="5" t="s">
-        <v>1814</v>
       </c>
       <c r="D521" s="5"/>
       <c r="E521" s="5" t="s">
@@ -24956,7 +24962,7 @@
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
@@ -24981,17 +24987,17 @@
         <v>8</v>
       </c>
       <c r="B522" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C522" s="5" t="s">
         <v>1816</v>
-      </c>
-      <c r="C522" s="5" t="s">
-        <v>1817</v>
       </c>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>

--- a/data/IRiDiuM.xlsx
+++ b/data/IRiDiuM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC4D63-F186-4F1A-AA32-42A2A2414BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39C7AE-5D64-426B-8AA3-D3D986555CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1833">
   <si>
     <t>Status</t>
   </si>
@@ -5607,6 +5607,15 @@
   </si>
   <si>
     <t>Oxford dictionnary; Science Advice for Emergency Management in Canada.</t>
+  </si>
+  <si>
+    <t>Science advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process, structures and institutions through which governments and decision makers receive and consider science and technology inputs to public policy development. </t>
+  </si>
+  <si>
+    <t>Science Advice for Emergency Management in Canada</t>
   </si>
 </sst>
 </file>
@@ -5999,11 +6008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1034"/>
+  <dimension ref="A1:Y1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I446" sqref="I446"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E455" sqref="E455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22497,8 +22506,8 @@
       <c r="Y453" s="6"/>
     </row>
     <row r="454" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="4" t="s">
-        <v>8</v>
+      <c r="A454" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>1577</v>
@@ -22510,10 +22519,9 @@
       <c r="E454" s="20" t="s">
         <v>1829</v>
       </c>
-      <c r="F454" s="5" t="s">
+      <c r="G454" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
         <v>1580</v>
       </c>
@@ -22537,25 +22545,21 @@
     </row>
     <row r="455" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1581</v>
+        <v>1830</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1582</v>
+        <v>1831</v>
       </c>
       <c r="D455" s="5"/>
-      <c r="E455" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F455" s="5" t="s">
-        <v>1583</v>
-      </c>
+      <c r="E455" s="20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F455" s="5"/>
       <c r="G455" s="5"/>
-      <c r="H455" s="5" t="s">
-        <v>1584</v>
-      </c>
+      <c r="H455" s="5"/>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
@@ -22579,21 +22583,21 @@
         <v>8</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="5" t="s">
-        <v>1587</v>
+        <v>1022</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="G456" s="5"/>
       <c r="H456" s="5" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
@@ -22618,19 +22622,21 @@
         <v>8</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D457" s="5"/>
-      <c r="E457" s="5"/>
+      <c r="E457" s="5" t="s">
+        <v>1587</v>
+      </c>
       <c r="F457" s="5" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="G457" s="5"/>
-      <c r="H457" s="11" t="s">
-        <v>1592</v>
+      <c r="H457" s="5" t="s">
+        <v>1589</v>
       </c>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
@@ -22655,17 +22661,19 @@
         <v>8</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
-      <c r="F458" s="5"/>
+      <c r="F458" s="5" t="s">
+        <v>1585</v>
+      </c>
       <c r="G458" s="5"/>
-      <c r="H458" s="5" t="s">
-        <v>1595</v>
+      <c r="H458" s="11" t="s">
+        <v>1592</v>
       </c>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
@@ -22690,17 +22698,17 @@
         <v>8</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
@@ -22725,21 +22733,17 @@
         <v>8</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1579</v>
+        <v>1596</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D460" s="5"/>
-      <c r="E460" s="5" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F460" s="5" t="s">
-        <v>1577</v>
-      </c>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
@@ -22764,19 +22768,21 @@
         <v>8</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1601</v>
+        <v>1579</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="5" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F461" s="5"/>
+        <v>1578</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>1577</v>
+      </c>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
@@ -22801,19 +22807,19 @@
         <v>8</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="5" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
@@ -22838,17 +22844,19 @@
         <v>8</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D463" s="5"/>
-      <c r="E463" s="5"/>
+      <c r="E463" s="5" t="s">
+        <v>1607</v>
+      </c>
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
@@ -22869,26 +22877,22 @@
       <c r="Y463" s="6"/>
     </row>
     <row r="464" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B464" s="8" t="s">
-        <v>1612</v>
+      <c r="A464" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>1609</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D464" s="5" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E464" s="5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F464" s="5" t="s">
-        <v>1616</v>
-      </c>
+        <v>1610</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
       <c r="G464" s="5"/>
-      <c r="H464" s="5"/>
+      <c r="H464" s="5" t="s">
+        <v>1611</v>
+      </c>
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
       <c r="K464" s="6"/>
@@ -22908,22 +22912,26 @@
       <c r="Y464" s="6"/>
     </row>
     <row r="465" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B465" s="5" t="s">
-        <v>1617</v>
+      <c r="A465" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1612</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D465" s="5"/>
-      <c r="E465" s="5"/>
-      <c r="F465" s="5"/>
+        <v>1613</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>1616</v>
+      </c>
       <c r="G465" s="5"/>
-      <c r="H465" s="5" t="s">
-        <v>1619</v>
-      </c>
+      <c r="H465" s="5"/>
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
       <c r="K465" s="6"/>
@@ -22943,22 +22951,22 @@
       <c r="Y465" s="6"/>
     </row>
     <row r="466" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B466" s="8" t="s">
-        <v>1620</v>
+      <c r="A466" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>1617</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="D466" s="5"/>
-      <c r="E466" s="10" t="s">
-        <v>1622</v>
-      </c>
+      <c r="E466" s="5"/>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
-      <c r="H466" s="5"/>
+      <c r="H466" s="5" t="s">
+        <v>1619</v>
+      </c>
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
       <c r="K466" s="6"/>
@@ -22979,23 +22987,21 @@
     </row>
     <row r="467" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="7" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="10" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
-      <c r="H467" s="5" t="s">
-        <v>1623</v>
-      </c>
+      <c r="H467" s="5"/>
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
       <c r="K467" s="6"/>
@@ -23016,23 +23022,23 @@
     </row>
     <row r="468" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="F468" s="5"/>
-      <c r="G468" s="5" t="s">
-        <v>1630</v>
-      </c>
-      <c r="H468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5" t="s">
+        <v>1623</v>
+      </c>
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
       <c r="K468" s="6"/>
@@ -23052,24 +23058,24 @@
       <c r="Y468" s="6"/>
     </row>
     <row r="469" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B469" s="5" t="s">
-        <v>1631</v>
+      <c r="A469" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1627</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="D469" s="5"/>
-      <c r="E469" s="5" t="s">
-        <v>158</v>
+      <c r="E469" s="10" t="s">
+        <v>1629</v>
       </c>
       <c r="F469" s="5"/>
-      <c r="G469" s="5"/>
-      <c r="H469" s="5" t="s">
-        <v>1633</v>
-      </c>
+      <c r="G469" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H469" s="5"/>
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
       <c r="K469" s="6"/>
@@ -23093,17 +23099,19 @@
         <v>8</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D470" s="5"/>
-      <c r="E470" s="5"/>
+      <c r="E470" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
@@ -23128,17 +23136,17 @@
         <v>8</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
@@ -23163,19 +23171,17 @@
         <v>8</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D472" s="5"/>
-      <c r="E472" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E472" s="5"/>
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
@@ -23200,17 +23206,19 @@
         <v>8</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D473" s="5"/>
-      <c r="E473" s="5"/>
+      <c r="E473" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
@@ -23235,17 +23243,17 @@
         <v>8</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
@@ -23270,21 +23278,17 @@
         <v>8</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D475" s="5"/>
-      <c r="E475" s="5" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>1652</v>
-      </c>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
@@ -23309,19 +23313,21 @@
         <v>8</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="D476" s="5"/>
-      <c r="E476" s="5"/>
+      <c r="E476" s="5" t="s">
+        <v>1651</v>
+      </c>
       <c r="F476" s="5" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
@@ -23346,19 +23352,19 @@
         <v>8</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D477" s="5"/>
-      <c r="E477" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5" t="s">
+        <v>1656</v>
+      </c>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
@@ -23383,19 +23389,19 @@
         <v>8</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="5" t="s">
-        <v>1101</v>
+        <v>184</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
@@ -23420,21 +23426,19 @@
         <v>8</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F479" s="5" t="s">
-        <v>1666</v>
-      </c>
+        <v>1101</v>
+      </c>
+      <c r="F479" s="5"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
@@ -23459,17 +23463,21 @@
         <v>8</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D480" s="5"/>
-      <c r="E480" s="5"/>
-      <c r="F480" s="5"/>
+      <c r="E480" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>1666</v>
+      </c>
       <c r="G480" s="5"/>
       <c r="H480" s="5" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
@@ -23494,19 +23502,17 @@
         <v>8</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D481" s="5"/>
-      <c r="E481" s="5" t="s">
-        <v>1673</v>
-      </c>
+      <c r="E481" s="5"/>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
@@ -23531,17 +23537,19 @@
         <v>8</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="D482" s="5"/>
-      <c r="E482" s="5"/>
+      <c r="E482" s="5" t="s">
+        <v>1673</v>
+      </c>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
@@ -23566,17 +23574,17 @@
         <v>8</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
@@ -23601,21 +23609,17 @@
         <v>8</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D484" s="5"/>
-      <c r="E484" s="5" t="s">
-        <v>1683</v>
-      </c>
-      <c r="F484" s="5" t="s">
-        <v>1684</v>
-      </c>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
       <c r="G484" s="5"/>
       <c r="H484" s="5" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
@@ -23640,19 +23644,21 @@
         <v>8</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="5" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F485" s="5"/>
+        <v>1683</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>1684</v>
+      </c>
       <c r="G485" s="5"/>
       <c r="H485" s="5" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
@@ -23677,17 +23683,19 @@
         <v>8</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="D486" s="5"/>
-      <c r="E486" s="5"/>
+      <c r="E486" s="5" t="s">
+        <v>1688</v>
+      </c>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
@@ -23712,19 +23720,17 @@
         <v>8</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D487" s="5"/>
-      <c r="E487" s="5" t="s">
-        <v>1695</v>
-      </c>
+      <c r="E487" s="5"/>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
@@ -23745,24 +23751,24 @@
       <c r="Y487" s="6"/>
     </row>
     <row r="488" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B488" s="8" t="s">
-        <v>1697</v>
+      <c r="A488" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1693</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D488" s="5" t="s">
-        <v>1699</v>
-      </c>
+        <v>1694</v>
+      </c>
+      <c r="D488" s="5"/>
       <c r="E488" s="5" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
-      <c r="H488" s="5"/>
+      <c r="H488" s="5" t="s">
+        <v>1696</v>
+      </c>
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
       <c r="K488" s="6"/>
@@ -23782,22 +23788,24 @@
       <c r="Y488" s="6"/>
     </row>
     <row r="489" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B489" s="5" t="s">
-        <v>1701</v>
+      <c r="A489" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1697</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D489" s="5"/>
-      <c r="E489" s="5"/>
+        <v>1698</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>1700</v>
+      </c>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
-      <c r="H489" s="5" t="s">
-        <v>1703</v>
-      </c>
+      <c r="H489" s="5"/>
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
       <c r="K489" s="6"/>
@@ -23821,17 +23829,17 @@
         <v>8</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
@@ -23856,19 +23864,17 @@
         <v>8</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
-      <c r="F491" s="5" t="s">
-        <v>1709</v>
-      </c>
+      <c r="F491" s="5"/>
       <c r="G491" s="5"/>
       <c r="H491" s="5" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
@@ -23893,17 +23899,19 @@
         <v>8</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
-      <c r="F492" s="5"/>
+      <c r="F492" s="5" t="s">
+        <v>1709</v>
+      </c>
       <c r="G492" s="5"/>
       <c r="H492" s="5" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
@@ -23928,19 +23936,17 @@
         <v>8</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D493" s="5"/>
-      <c r="E493" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="E493" s="5"/>
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
@@ -23961,22 +23967,24 @@
       <c r="Y493" s="6"/>
     </row>
     <row r="494" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B494" s="8" t="s">
-        <v>1717</v>
+      <c r="A494" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1714</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="5" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
-      <c r="H494" s="5"/>
+      <c r="H494" s="5" t="s">
+        <v>1716</v>
+      </c>
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
       <c r="K494" s="6"/>
@@ -23996,24 +24004,22 @@
       <c r="Y494" s="6"/>
     </row>
     <row r="495" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A495" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B495" s="5" t="s">
-        <v>1719</v>
+      <c r="A495" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1717</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="5" t="s">
-        <v>1209</v>
+        <v>292</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
-      <c r="H495" s="5" t="s">
-        <v>1721</v>
-      </c>
+      <c r="H495" s="5"/>
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
       <c r="K495" s="6"/>
@@ -24037,17 +24043,19 @@
         <v>8</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D496" s="5"/>
-      <c r="E496" s="5"/>
+      <c r="E496" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
@@ -24072,17 +24080,17 @@
         <v>8</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
@@ -24107,19 +24115,17 @@
         <v>8</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
-      <c r="F498" s="5" t="s">
-        <v>1730</v>
-      </c>
+      <c r="F498" s="5"/>
       <c r="G498" s="5"/>
       <c r="H498" s="5" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
@@ -24144,19 +24150,19 @@
         <v>8</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D499" s="5"/>
-      <c r="E499" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5" t="s">
+        <v>1730</v>
+      </c>
       <c r="G499" s="5"/>
       <c r="H499" s="5" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
@@ -24181,17 +24187,19 @@
         <v>8</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D500" s="5"/>
-      <c r="E500" s="5"/>
+      <c r="E500" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
@@ -24216,19 +24224,17 @@
         <v>8</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
-      <c r="F501" s="5" t="s">
-        <v>1740</v>
-      </c>
+      <c r="F501" s="5"/>
       <c r="G501" s="5"/>
       <c r="H501" s="5" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
@@ -24253,17 +24259,19 @@
         <v>8</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
-      <c r="F502" s="5"/>
+      <c r="F502" s="5" t="s">
+        <v>1740</v>
+      </c>
       <c r="G502" s="5"/>
       <c r="H502" s="5" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
@@ -24284,22 +24292,22 @@
       <c r="Y502" s="6"/>
     </row>
     <row r="503" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B503" s="8" t="s">
-        <v>1745</v>
+      <c r="A503" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>1742</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D503" s="5"/>
-      <c r="E503" s="5" t="s">
-        <v>862</v>
-      </c>
+      <c r="E503" s="5"/>
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
-      <c r="H503" s="5"/>
+      <c r="H503" s="5" t="s">
+        <v>1744</v>
+      </c>
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6"/>
@@ -24319,26 +24327,22 @@
       <c r="Y503" s="6"/>
     </row>
     <row r="504" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B504" s="5" t="s">
-        <v>1747</v>
+      <c r="A504" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>1745</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="5" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F504" s="5" t="s">
-        <v>1750</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F504" s="5"/>
       <c r="G504" s="5"/>
-      <c r="H504" s="5" t="s">
-        <v>1751</v>
-      </c>
+      <c r="H504" s="5"/>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
       <c r="K504" s="6"/>
@@ -24358,22 +24362,26 @@
       <c r="Y504" s="6"/>
     </row>
     <row r="505" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B505" s="8" t="s">
-        <v>1752</v>
+      <c r="A505" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>1747</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="5" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F505" s="5"/>
+        <v>1749</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>1750</v>
+      </c>
       <c r="G505" s="5"/>
-      <c r="H505" s="5"/>
+      <c r="H505" s="5" t="s">
+        <v>1751</v>
+      </c>
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
       <c r="K505" s="6"/>
@@ -24393,22 +24401,22 @@
       <c r="Y505" s="6"/>
     </row>
     <row r="506" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B506" s="5" t="s">
-        <v>1755</v>
+      <c r="A506" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>1752</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D506" s="5"/>
-      <c r="E506" s="5"/>
+      <c r="E506" s="5" t="s">
+        <v>1754</v>
+      </c>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
-      <c r="H506" s="5" t="s">
-        <v>1757</v>
-      </c>
+      <c r="H506" s="5"/>
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
       <c r="K506" s="6"/>
@@ -24432,21 +24440,17 @@
         <v>8</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D507" s="5"/>
-      <c r="E507" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F507" s="5" t="s">
-        <v>1760</v>
-      </c>
+      <c r="E507" s="5"/>
+      <c r="F507" s="5"/>
       <c r="G507" s="5"/>
       <c r="H507" s="5" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
@@ -24471,19 +24475,21 @@
         <v>8</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="D508" s="5"/>
-      <c r="E508" s="5"/>
+      <c r="E508" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F508" s="5" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="G508" s="5"/>
       <c r="H508" s="5" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
@@ -24508,19 +24514,19 @@
         <v>8</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="G509" s="5"/>
       <c r="H509" s="5" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
@@ -24545,19 +24551,19 @@
         <v>8</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="G510" s="5"/>
       <c r="H510" s="5" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
@@ -24582,19 +24588,19 @@
         <v>8</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="G511" s="5"/>
       <c r="H511" s="5" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -24619,21 +24625,19 @@
         <v>8</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="D512" s="5"/>
-      <c r="E512" s="5" t="s">
-        <v>1780</v>
-      </c>
+      <c r="E512" s="5"/>
       <c r="F512" s="5" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="5" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
@@ -24658,17 +24662,21 @@
         <v>8</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="D513" s="5"/>
-      <c r="E513" s="5"/>
-      <c r="F513" s="5"/>
+      <c r="E513" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>1781</v>
+      </c>
       <c r="G513" s="5"/>
       <c r="H513" s="5" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
@@ -24693,17 +24701,17 @@
         <v>8</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
@@ -24728,17 +24736,17 @@
         <v>8</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
@@ -24763,19 +24771,17 @@
         <v>8</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
-      <c r="F516" s="5" t="s">
-        <v>1794</v>
-      </c>
+      <c r="F516" s="5"/>
       <c r="G516" s="5"/>
       <c r="H516" s="5" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
@@ -24800,21 +24806,19 @@
         <v>8</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="D517" s="5"/>
-      <c r="E517" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="E517" s="5"/>
       <c r="F517" s="5" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="G517" s="5"/>
       <c r="H517" s="5" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
@@ -24839,17 +24843,21 @@
         <v>8</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="D518" s="5"/>
-      <c r="E518" s="5"/>
-      <c r="F518" s="5"/>
+      <c r="E518" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>1798</v>
+      </c>
       <c r="G518" s="5"/>
       <c r="H518" s="5" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
@@ -24874,23 +24882,17 @@
         <v>8</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D519" s="5"/>
-      <c r="E519" s="5" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G519" s="5" t="s">
-        <v>1807</v>
-      </c>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+      <c r="G519" s="5"/>
       <c r="H519" s="5" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
@@ -24915,17 +24917,23 @@
         <v>8</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="D520" s="5"/>
-      <c r="E520" s="5"/>
-      <c r="F520" s="5"/>
-      <c r="G520" s="5"/>
+      <c r="E520" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1807</v>
+      </c>
       <c r="H520" s="5" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
@@ -24950,19 +24958,17 @@
         <v>8</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D521" s="5"/>
-      <c r="E521" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="E521" s="5"/>
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
@@ -24987,17 +24993,19 @@
         <v>8</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D522" s="5"/>
-      <c r="E522" s="5"/>
+      <c r="E522" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>
@@ -25018,14 +25026,22 @@
       <c r="Y522" s="6"/>
     </row>
     <row r="523" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="4"/>
-      <c r="B523" s="6"/>
-      <c r="C523" s="6"/>
-      <c r="D523" s="6"/>
-      <c r="E523" s="6"/>
-      <c r="F523" s="6"/>
-      <c r="G523" s="6"/>
-      <c r="H523" s="6"/>
+      <c r="A523" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5"/>
+      <c r="H523" s="5" t="s">
+        <v>1817</v>
+      </c>
       <c r="I523" s="6"/>
       <c r="J523" s="6"/>
       <c r="K523" s="6"/>
@@ -38841,13 +38857,40 @@
       <c r="X1034" s="6"/>
       <c r="Y1034" s="6"/>
     </row>
+    <row r="1035" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="4"/>
+      <c r="B1035" s="6"/>
+      <c r="C1035" s="6"/>
+      <c r="D1035" s="6"/>
+      <c r="E1035" s="6"/>
+      <c r="F1035" s="6"/>
+      <c r="G1035" s="6"/>
+      <c r="H1035" s="6"/>
+      <c r="I1035" s="6"/>
+      <c r="J1035" s="6"/>
+      <c r="K1035" s="6"/>
+      <c r="L1035" s="6"/>
+      <c r="M1035" s="6"/>
+      <c r="N1035" s="6"/>
+      <c r="O1035" s="6"/>
+      <c r="P1035" s="6"/>
+      <c r="Q1035" s="6"/>
+      <c r="R1035" s="6"/>
+      <c r="S1035" s="6"/>
+      <c r="T1035" s="6"/>
+      <c r="U1035" s="6"/>
+      <c r="V1035" s="6"/>
+      <c r="W1035" s="6"/>
+      <c r="X1035" s="6"/>
+      <c r="Y1035" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E466" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E467" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E468" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E467" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E468" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E469" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
